--- a/database/industries/siman/saroum/product/monthly_seprated.xlsx
+++ b/database/industries/siman/saroum/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\saroum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08913303-51DF-499E-B56A-D88ECAAED95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76DDF2-E39F-4EED-AC0E-C5A30A29C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="98">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1594,32 +1594,32 @@
       <c r="AS11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
+      <c r="AT11" s="11">
+        <v>177369</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>171230</v>
       </c>
       <c r="AV11" s="11">
-        <v>177369</v>
+        <v>157007</v>
       </c>
       <c r="AW11" s="11">
-        <v>171230</v>
+        <v>84889</v>
       </c>
       <c r="AX11" s="11">
-        <v>157007</v>
+        <v>50792</v>
       </c>
       <c r="AY11" s="11">
-        <v>84889</v>
+        <v>123977</v>
       </c>
       <c r="AZ11" s="11">
-        <v>50792</v>
+        <v>164944</v>
       </c>
       <c r="BA11" s="11">
-        <v>123977</v>
+        <v>117745</v>
       </c>
       <c r="BB11" s="11">
-        <v>164944</v>
+        <v>166612</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1753,23 +1753,23 @@
       <c r="AS12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
+      <c r="AT12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>1007</v>
       </c>
       <c r="AV12" s="13">
-        <v>0</v>
+        <v>4627</v>
       </c>
       <c r="AW12" s="13">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AX12" s="13">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="13">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
         <v>0</v>
@@ -1915,20 +1915,20 @@
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>58</v>
+      <c r="AU13" s="11">
+        <v>128</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>883</v>
       </c>
       <c r="AW13" s="11">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="AX13" s="11">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="11">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
         <v>0</v>
@@ -2008,74 +2008,74 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>195601</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>193773</v>
       </c>
       <c r="AA14" s="13">
-        <v>195601</v>
+        <v>148809</v>
       </c>
       <c r="AB14" s="13">
-        <v>193773</v>
+        <v>146814</v>
       </c>
       <c r="AC14" s="13">
-        <v>148809</v>
+        <v>169675</v>
       </c>
       <c r="AD14" s="13">
-        <v>146814</v>
+        <v>90887</v>
       </c>
       <c r="AE14" s="13">
-        <v>169675</v>
+        <v>49019</v>
       </c>
       <c r="AF14" s="13">
-        <v>90887</v>
+        <v>102391</v>
       </c>
       <c r="AG14" s="13">
-        <v>49019</v>
+        <v>115014</v>
       </c>
       <c r="AH14" s="13">
-        <v>102391</v>
+        <v>144227</v>
       </c>
       <c r="AI14" s="13">
-        <v>115014</v>
+        <v>170739</v>
       </c>
       <c r="AJ14" s="13">
-        <v>144227</v>
+        <v>162686</v>
       </c>
       <c r="AK14" s="13">
-        <v>170739</v>
+        <v>159511</v>
       </c>
       <c r="AL14" s="13">
-        <v>162686</v>
+        <v>133373</v>
       </c>
       <c r="AM14" s="13">
-        <v>159511</v>
+        <v>168429</v>
       </c>
       <c r="AN14" s="13">
-        <v>133373</v>
+        <v>159450</v>
       </c>
       <c r="AO14" s="13">
-        <v>168429</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>159450</v>
+        <v>133042</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ14" s="13">
-        <v>133042</v>
-      </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
+        <v>14108</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>40261</v>
       </c>
       <c r="AS14" s="13">
-        <v>14108</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>40261</v>
-      </c>
-      <c r="AU14" s="13">
         <v>141110</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV14" s="13" t="s">
         <v>58</v>
@@ -2167,74 +2167,74 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>102013</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>120681</v>
       </c>
       <c r="AA15" s="11">
-        <v>102013</v>
+        <v>133927</v>
       </c>
       <c r="AB15" s="11">
-        <v>120681</v>
+        <v>161699</v>
       </c>
       <c r="AC15" s="11">
-        <v>133927</v>
+        <v>173974</v>
       </c>
       <c r="AD15" s="11">
-        <v>161699</v>
+        <v>124332</v>
       </c>
       <c r="AE15" s="11">
-        <v>173974</v>
+        <v>121700</v>
       </c>
       <c r="AF15" s="11">
-        <v>124332</v>
+        <v>99071</v>
       </c>
       <c r="AG15" s="11">
-        <v>121700</v>
+        <v>184574</v>
       </c>
       <c r="AH15" s="11">
-        <v>99071</v>
+        <v>181446</v>
       </c>
       <c r="AI15" s="11">
-        <v>184574</v>
+        <v>143437</v>
       </c>
       <c r="AJ15" s="11">
-        <v>181446</v>
+        <v>123720</v>
       </c>
       <c r="AK15" s="11">
-        <v>143437</v>
+        <v>123775</v>
       </c>
       <c r="AL15" s="11">
-        <v>123720</v>
+        <v>188126</v>
       </c>
       <c r="AM15" s="11">
-        <v>123775</v>
+        <v>121643</v>
       </c>
       <c r="AN15" s="11">
-        <v>188126</v>
+        <v>172918</v>
       </c>
       <c r="AO15" s="11">
-        <v>121643</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>172918</v>
+        <v>145867</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ15" s="11">
-        <v>145867</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
+        <v>93514</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>72101</v>
       </c>
       <c r="AS15" s="11">
-        <v>93514</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>72101</v>
-      </c>
-      <c r="AU15" s="11">
         <v>78311</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV15" s="11" t="s">
         <v>58</v>
@@ -2389,32 +2389,32 @@
       <c r="AS16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
+      <c r="AT16" s="13">
+        <v>27126</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>4516</v>
       </c>
       <c r="AV16" s="13">
-        <v>27126</v>
+        <v>30995</v>
       </c>
       <c r="AW16" s="13">
-        <v>4516</v>
+        <v>78629</v>
       </c>
       <c r="AX16" s="13">
-        <v>30995</v>
+        <v>40687</v>
       </c>
       <c r="AY16" s="13">
-        <v>78629</v>
+        <v>72536</v>
       </c>
       <c r="AZ16" s="13">
-        <v>40687</v>
+        <v>61385</v>
       </c>
       <c r="BA16" s="13">
-        <v>72536</v>
+        <v>46393</v>
       </c>
       <c r="BB16" s="13">
-        <v>61385</v>
+        <v>38218</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2548,32 +2548,32 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>51135</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>32391</v>
       </c>
       <c r="AV17" s="11">
-        <v>51135</v>
+        <v>49815</v>
       </c>
       <c r="AW17" s="11">
-        <v>32391</v>
+        <v>53491</v>
       </c>
       <c r="AX17" s="11">
-        <v>49815</v>
+        <v>49499</v>
       </c>
       <c r="AY17" s="11">
-        <v>53491</v>
+        <v>65199</v>
       </c>
       <c r="AZ17" s="11">
-        <v>49499</v>
+        <v>50658</v>
       </c>
       <c r="BA17" s="11">
-        <v>65199</v>
+        <v>45152</v>
       </c>
       <c r="BB17" s="11">
-        <v>50658</v>
+        <v>31296</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2707,23 +2707,23 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>1011</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="AW18" s="13">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AX18" s="13">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="13">
         <v>0</v>
@@ -2866,32 +2866,32 @@
       <c r="AS19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>58</v>
+      <c r="AT19" s="11">
+        <v>33062</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>30286</v>
       </c>
       <c r="AV19" s="11">
-        <v>33062</v>
+        <v>41291</v>
       </c>
       <c r="AW19" s="11">
-        <v>30286</v>
+        <v>9926</v>
       </c>
       <c r="AX19" s="11">
-        <v>41291</v>
+        <v>9670</v>
       </c>
       <c r="AY19" s="11">
-        <v>9926</v>
+        <v>2836</v>
       </c>
       <c r="AZ19" s="11">
-        <v>9670</v>
+        <v>12622</v>
       </c>
       <c r="BA19" s="11">
-        <v>2836</v>
+        <v>21035</v>
       </c>
       <c r="BB19" s="11">
-        <v>12622</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3025,32 +3025,32 @@
       <c r="AS20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU20" s="13" t="s">
-        <v>58</v>
+      <c r="AT20" s="13">
+        <v>23230</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>43566</v>
       </c>
       <c r="AV20" s="13">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AW20" s="13">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AX20" s="13">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AY20" s="13">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AZ20" s="13">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="BA20" s="13">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="BB20" s="13">
-        <v>5194</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3184,32 +3184,32 @@
       <c r="AS21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>58</v>
+      <c r="AT21" s="11">
+        <v>24302</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>6842</v>
       </c>
       <c r="AV21" s="11">
-        <v>24302</v>
+        <v>6493</v>
       </c>
       <c r="AW21" s="11">
-        <v>6842</v>
+        <v>4962</v>
       </c>
       <c r="AX21" s="11">
-        <v>6493</v>
+        <v>3811</v>
       </c>
       <c r="AY21" s="11">
-        <v>4962</v>
+        <v>9312</v>
       </c>
       <c r="AZ21" s="11">
-        <v>3811</v>
+        <v>10988</v>
       </c>
       <c r="BA21" s="11">
-        <v>9312</v>
+        <v>11569</v>
       </c>
       <c r="BB21" s="11">
-        <v>10988</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3343,14 +3343,14 @@
       <c r="AS22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU22" s="13" t="s">
-        <v>58</v>
+      <c r="AT22" s="13">
+        <v>3041</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="13">
         <v>0</v>
@@ -3502,11 +3502,11 @@
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>58</v>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11">
+        <v>0</v>
       </c>
       <c r="AV23" s="11">
         <v>0</v>
@@ -3597,94 +3597,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="15">
-        <v>0</v>
+        <v>297614</v>
       </c>
       <c r="Z24" s="15">
-        <v>0</v>
+        <v>314454</v>
       </c>
       <c r="AA24" s="15">
-        <v>297614</v>
+        <v>282736</v>
       </c>
       <c r="AB24" s="15">
-        <v>314454</v>
+        <v>308513</v>
       </c>
       <c r="AC24" s="15">
-        <v>282736</v>
+        <v>343649</v>
       </c>
       <c r="AD24" s="15">
-        <v>308513</v>
+        <v>215219</v>
       </c>
       <c r="AE24" s="15">
-        <v>343649</v>
+        <v>170719</v>
       </c>
       <c r="AF24" s="15">
-        <v>215219</v>
+        <v>201462</v>
       </c>
       <c r="AG24" s="15">
-        <v>170719</v>
+        <v>299588</v>
       </c>
       <c r="AH24" s="15">
-        <v>201462</v>
+        <v>325673</v>
       </c>
       <c r="AI24" s="15">
-        <v>299588</v>
+        <v>314176</v>
       </c>
       <c r="AJ24" s="15">
-        <v>325673</v>
+        <v>286406</v>
       </c>
       <c r="AK24" s="15">
-        <v>314176</v>
+        <v>283286</v>
       </c>
       <c r="AL24" s="15">
-        <v>286406</v>
+        <v>321499</v>
       </c>
       <c r="AM24" s="15">
-        <v>283286</v>
+        <v>290072</v>
       </c>
       <c r="AN24" s="15">
-        <v>321499</v>
+        <v>332368</v>
       </c>
       <c r="AO24" s="15">
-        <v>290072</v>
+        <v>278909</v>
       </c>
       <c r="AP24" s="15">
-        <v>332368</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="15">
-        <v>278909</v>
+        <v>107622</v>
       </c>
       <c r="AR24" s="15">
-        <v>0</v>
+        <v>112362</v>
       </c>
       <c r="AS24" s="15">
-        <v>107622</v>
+        <v>219421</v>
       </c>
       <c r="AT24" s="15">
-        <v>112362</v>
+        <v>339265</v>
       </c>
       <c r="AU24" s="15">
-        <v>219421</v>
+        <v>290977</v>
       </c>
       <c r="AV24" s="15">
-        <v>339265</v>
+        <v>332378</v>
       </c>
       <c r="AW24" s="15">
-        <v>290977</v>
+        <v>240815</v>
       </c>
       <c r="AX24" s="15">
-        <v>332378</v>
+        <v>158602</v>
       </c>
       <c r="AY24" s="15">
-        <v>240815</v>
+        <v>278341</v>
       </c>
       <c r="AZ24" s="15">
-        <v>158602</v>
+        <v>305791</v>
       </c>
       <c r="BA24" s="15">
-        <v>278341</v>
+        <v>250616</v>
       </c>
       <c r="BB24" s="15">
-        <v>305791</v>
+        <v>270781</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3875,32 +3875,32 @@
       <c r="AS26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU26" s="11" t="s">
-        <v>58</v>
+      <c r="AT26" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AU26" s="11">
+        <v>3209</v>
       </c>
       <c r="AV26" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AW26" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AX26" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AY26" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AZ26" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="BA26" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="BB26" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3971,74 +3971,74 @@
       <c r="X27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
+      <c r="Y27" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
       </c>
       <c r="AA27" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="13">
         <v>0</v>
       </c>
       <c r="AC27" s="13">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AD27" s="13">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AE27" s="13">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="13">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AG27" s="13">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AH27" s="13">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AI27" s="13">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AJ27" s="13">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AK27" s="13">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AL27" s="13">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AM27" s="13">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AN27" s="13">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AO27" s="13">
-        <v>6875</v>
-      </c>
-      <c r="AP27" s="13">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AP27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ27" s="13">
-        <v>3756</v>
-      </c>
-      <c r="AR27" s="13" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>3362</v>
       </c>
       <c r="AS27" s="13">
-        <v>25</v>
-      </c>
-      <c r="AT27" s="13">
-        <v>3362</v>
-      </c>
-      <c r="AU27" s="13">
         <v>13890</v>
+      </c>
+      <c r="AT27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV27" s="13" t="s">
         <v>58</v>
@@ -4130,74 +4130,74 @@
       <c r="X28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>58</v>
+      <c r="Y28" s="11">
+        <v>12327</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>12761</v>
       </c>
       <c r="AA28" s="11">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="AB28" s="11">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC28" s="11">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AD28" s="11">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AE28" s="11">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AF28" s="11">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AG28" s="11">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AH28" s="11">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AI28" s="11">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AJ28" s="11">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AK28" s="11">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AL28" s="11">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AM28" s="11">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AN28" s="11">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AO28" s="11">
-        <v>7618</v>
-      </c>
-      <c r="AP28" s="11">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AP28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ28" s="11">
-        <v>2759</v>
-      </c>
-      <c r="AR28" s="11" t="s">
-        <v>58</v>
+        <v>419</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>322</v>
       </c>
       <c r="AS28" s="11">
-        <v>419</v>
-      </c>
-      <c r="AT28" s="11">
-        <v>322</v>
-      </c>
-      <c r="AU28" s="11">
         <v>1859</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>58</v>
@@ -4352,32 +4352,32 @@
       <c r="AS29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU29" s="13" t="s">
-        <v>58</v>
+      <c r="AT29" s="13">
+        <v>1708</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>2098</v>
       </c>
       <c r="AV29" s="13">
-        <v>1708</v>
+        <v>2802</v>
       </c>
       <c r="AW29" s="13">
-        <v>2098</v>
+        <v>2014</v>
       </c>
       <c r="AX29" s="13">
-        <v>2802</v>
+        <v>2244</v>
       </c>
       <c r="AY29" s="13">
-        <v>2014</v>
+        <v>277</v>
       </c>
       <c r="AZ29" s="13">
-        <v>2244</v>
+        <v>420</v>
       </c>
       <c r="BA29" s="13">
-        <v>277</v>
+        <v>829</v>
       </c>
       <c r="BB29" s="13">
-        <v>420</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4511,32 +4511,32 @@
       <c r="AS30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU30" s="11" t="s">
-        <v>58</v>
+      <c r="AT30" s="11">
+        <v>1657</v>
+      </c>
+      <c r="AU30" s="11">
+        <v>2448</v>
       </c>
       <c r="AV30" s="11">
-        <v>1657</v>
+        <v>2638</v>
       </c>
       <c r="AW30" s="11">
-        <v>2448</v>
+        <v>1893</v>
       </c>
       <c r="AX30" s="11">
-        <v>2638</v>
+        <v>2364</v>
       </c>
       <c r="AY30" s="11">
-        <v>1893</v>
+        <v>1942</v>
       </c>
       <c r="AZ30" s="11">
-        <v>2364</v>
+        <v>2557</v>
       </c>
       <c r="BA30" s="11">
-        <v>1942</v>
+        <v>4549</v>
       </c>
       <c r="BB30" s="11">
-        <v>2557</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4606,94 +4606,94 @@
         <v>0</v>
       </c>
       <c r="Y31" s="15">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="Z31" s="15">
-        <v>0</v>
+        <v>12761</v>
       </c>
       <c r="AA31" s="15">
-        <v>12350</v>
+        <v>12866</v>
       </c>
       <c r="AB31" s="15">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC31" s="15">
-        <v>12866</v>
+        <v>3741</v>
       </c>
       <c r="AD31" s="15">
-        <v>4097</v>
+        <v>8366</v>
       </c>
       <c r="AE31" s="15">
-        <v>3741</v>
+        <v>2341</v>
       </c>
       <c r="AF31" s="15">
-        <v>8366</v>
+        <v>8130</v>
       </c>
       <c r="AG31" s="15">
-        <v>2341</v>
+        <v>3369</v>
       </c>
       <c r="AH31" s="15">
-        <v>8130</v>
+        <v>14173</v>
       </c>
       <c r="AI31" s="15">
-        <v>3369</v>
+        <v>11674</v>
       </c>
       <c r="AJ31" s="15">
-        <v>14173</v>
+        <v>10986</v>
       </c>
       <c r="AK31" s="15">
-        <v>11674</v>
+        <v>9524</v>
       </c>
       <c r="AL31" s="15">
-        <v>10986</v>
+        <v>8050</v>
       </c>
       <c r="AM31" s="15">
-        <v>9524</v>
+        <v>14493</v>
       </c>
       <c r="AN31" s="15">
-        <v>8050</v>
+        <v>4732</v>
       </c>
       <c r="AO31" s="15">
-        <v>14493</v>
+        <v>6515</v>
       </c>
       <c r="AP31" s="15">
-        <v>4732</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="15">
-        <v>6515</v>
+        <v>444</v>
       </c>
       <c r="AR31" s="15">
-        <v>0</v>
+        <v>3684</v>
       </c>
       <c r="AS31" s="15">
-        <v>444</v>
+        <v>15749</v>
       </c>
       <c r="AT31" s="15">
-        <v>3684</v>
+        <v>17194</v>
       </c>
       <c r="AU31" s="15">
-        <v>15749</v>
+        <v>7755</v>
       </c>
       <c r="AV31" s="15">
-        <v>17194</v>
+        <v>8419</v>
       </c>
       <c r="AW31" s="15">
-        <v>7755</v>
+        <v>4411</v>
       </c>
       <c r="AX31" s="15">
-        <v>8419</v>
+        <v>11134</v>
       </c>
       <c r="AY31" s="15">
-        <v>4411</v>
+        <v>5597</v>
       </c>
       <c r="AZ31" s="15">
-        <v>11134</v>
+        <v>4353</v>
       </c>
       <c r="BA31" s="15">
-        <v>5597</v>
+        <v>17445</v>
       </c>
       <c r="BB31" s="15">
-        <v>4353</v>
+        <v>23705</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4819,11 +4819,11 @@
       <c r="X33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="19" t="s">
-        <v>58</v>
+      <c r="Y33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>0</v>
       </c>
       <c r="AA33" s="19">
         <v>0</v>
@@ -4977,94 +4977,94 @@
         <v>0</v>
       </c>
       <c r="Y34" s="15">
-        <v>0</v>
+        <v>309964</v>
       </c>
       <c r="Z34" s="15">
-        <v>0</v>
+        <v>327215</v>
       </c>
       <c r="AA34" s="15">
-        <v>309964</v>
+        <v>295602</v>
       </c>
       <c r="AB34" s="15">
-        <v>327215</v>
+        <v>312610</v>
       </c>
       <c r="AC34" s="15">
-        <v>295602</v>
+        <v>347390</v>
       </c>
       <c r="AD34" s="15">
-        <v>312610</v>
+        <v>223585</v>
       </c>
       <c r="AE34" s="15">
-        <v>347390</v>
+        <v>173060</v>
       </c>
       <c r="AF34" s="15">
-        <v>223585</v>
+        <v>209592</v>
       </c>
       <c r="AG34" s="15">
-        <v>173060</v>
+        <v>302957</v>
       </c>
       <c r="AH34" s="15">
-        <v>209592</v>
+        <v>339846</v>
       </c>
       <c r="AI34" s="15">
-        <v>302957</v>
+        <v>325850</v>
       </c>
       <c r="AJ34" s="15">
-        <v>339846</v>
+        <v>297392</v>
       </c>
       <c r="AK34" s="15">
-        <v>325850</v>
+        <v>292810</v>
       </c>
       <c r="AL34" s="15">
-        <v>297392</v>
+        <v>329549</v>
       </c>
       <c r="AM34" s="15">
-        <v>292810</v>
+        <v>304565</v>
       </c>
       <c r="AN34" s="15">
-        <v>329549</v>
+        <v>337100</v>
       </c>
       <c r="AO34" s="15">
-        <v>304565</v>
+        <v>285424</v>
       </c>
       <c r="AP34" s="15">
-        <v>337100</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="15">
-        <v>285424</v>
+        <v>108066</v>
       </c>
       <c r="AR34" s="15">
-        <v>0</v>
+        <v>116046</v>
       </c>
       <c r="AS34" s="15">
-        <v>108066</v>
+        <v>235170</v>
       </c>
       <c r="AT34" s="15">
-        <v>116046</v>
+        <v>356459</v>
       </c>
       <c r="AU34" s="15">
-        <v>235170</v>
+        <v>298732</v>
       </c>
       <c r="AV34" s="15">
-        <v>356459</v>
+        <v>340797</v>
       </c>
       <c r="AW34" s="15">
-        <v>298732</v>
+        <v>245226</v>
       </c>
       <c r="AX34" s="15">
-        <v>340797</v>
+        <v>169736</v>
       </c>
       <c r="AY34" s="15">
-        <v>245226</v>
+        <v>283938</v>
       </c>
       <c r="AZ34" s="15">
-        <v>169736</v>
+        <v>310144</v>
       </c>
       <c r="BA34" s="15">
-        <v>283938</v>
+        <v>268061</v>
       </c>
       <c r="BB34" s="15">
-        <v>310144</v>
+        <v>294486</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -5632,11 +5632,11 @@
       <c r="AS41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
       </c>
       <c r="AV41" s="11">
         <v>0</v>
@@ -5644,8 +5644,8 @@
       <c r="AW41" s="11">
         <v>0</v>
       </c>
-      <c r="AX41" s="11" t="s">
-        <v>58</v>
+      <c r="AX41" s="11">
+        <v>0</v>
       </c>
       <c r="AY41" s="11">
         <v>0</v>
@@ -5791,23 +5791,23 @@
       <c r="AS42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU42" s="13" t="s">
-        <v>58</v>
+      <c r="AT42" s="13">
+        <v>70</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>1007</v>
       </c>
       <c r="AV42" s="13">
-        <v>70</v>
+        <v>4557</v>
       </c>
       <c r="AW42" s="13">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AX42" s="13">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="AY42" s="13">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="13">
         <v>0</v>
@@ -5953,14 +5953,14 @@
       <c r="AT43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>58</v>
+      <c r="AU43" s="11">
+        <v>149</v>
+      </c>
+      <c r="AV43" s="11">
+        <v>0</v>
       </c>
       <c r="AW43" s="11">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="11">
         <v>0</v>
@@ -6046,74 +6046,74 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>203157</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>171574</v>
       </c>
       <c r="AA44" s="13">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="AB44" s="13">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AC44" s="13">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AD44" s="13">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AE44" s="13">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AF44" s="13">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AG44" s="13">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AH44" s="13">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AI44" s="13">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AJ44" s="13">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AK44" s="13">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AL44" s="13">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AM44" s="13">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AN44" s="13">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AO44" s="13">
-        <v>175920</v>
-      </c>
-      <c r="AP44" s="13">
-        <v>148852</v>
+        <v>130637</v>
+      </c>
+      <c r="AP44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ44" s="13">
-        <v>130637</v>
-      </c>
-      <c r="AR44" s="13" t="s">
-        <v>58</v>
+        <v>24493</v>
+      </c>
+      <c r="AR44" s="13">
+        <v>39776</v>
       </c>
       <c r="AS44" s="13">
-        <v>24493</v>
-      </c>
-      <c r="AT44" s="13">
-        <v>39776</v>
-      </c>
-      <c r="AU44" s="13">
         <v>129745</v>
+      </c>
+      <c r="AT44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV44" s="13" t="s">
         <v>58</v>
@@ -6205,11 +6205,11 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
         <v>0</v>
@@ -6241,14 +6241,14 @@
       <c r="AJ45" s="11">
         <v>0</v>
       </c>
-      <c r="AK45" s="11">
-        <v>0</v>
+      <c r="AK45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL45" s="11">
         <v>0</v>
       </c>
-      <c r="AM45" s="11" t="s">
-        <v>58</v>
+      <c r="AM45" s="11">
+        <v>0</v>
       </c>
       <c r="AN45" s="11">
         <v>0</v>
@@ -6256,23 +6256,23 @@
       <c r="AO45" s="11">
         <v>0</v>
       </c>
-      <c r="AP45" s="11">
-        <v>0</v>
+      <c r="AP45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ45" s="11">
         <v>0</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>58</v>
+      <c r="AR45" s="11">
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
         <v>0</v>
       </c>
-      <c r="AT45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="11">
-        <v>0</v>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
@@ -6427,32 +6427,32 @@
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
+      <c r="AT46" s="13">
+        <v>28895</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>15996</v>
       </c>
       <c r="AV46" s="13">
-        <v>28895</v>
+        <v>29284</v>
       </c>
       <c r="AW46" s="13">
-        <v>15996</v>
+        <v>53375</v>
       </c>
       <c r="AX46" s="13">
-        <v>29284</v>
+        <v>53605</v>
       </c>
       <c r="AY46" s="13">
-        <v>53375</v>
+        <v>70066</v>
       </c>
       <c r="AZ46" s="13">
-        <v>53605</v>
+        <v>53134</v>
       </c>
       <c r="BA46" s="13">
-        <v>70066</v>
+        <v>50815</v>
       </c>
       <c r="BB46" s="13">
-        <v>53134</v>
+        <v>36076</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6586,32 +6586,32 @@
       <c r="AS47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
+      <c r="AT47" s="11">
+        <v>51135</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>32391</v>
       </c>
       <c r="AV47" s="11">
-        <v>51135</v>
+        <v>49815</v>
       </c>
       <c r="AW47" s="11">
-        <v>32391</v>
+        <v>53491</v>
       </c>
       <c r="AX47" s="11">
-        <v>49815</v>
+        <v>49499</v>
       </c>
       <c r="AY47" s="11">
-        <v>53491</v>
+        <v>65199</v>
       </c>
       <c r="AZ47" s="11">
-        <v>49499</v>
+        <v>50658</v>
       </c>
       <c r="BA47" s="11">
-        <v>65199</v>
+        <v>45152</v>
       </c>
       <c r="BB47" s="11">
-        <v>50658</v>
+        <v>31296</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6745,23 +6745,23 @@
       <c r="AS48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU48" s="13" t="s">
-        <v>58</v>
+      <c r="AT48" s="13">
+        <v>48</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>1011</v>
       </c>
       <c r="AV48" s="13">
-        <v>48</v>
+        <v>1705</v>
       </c>
       <c r="AW48" s="13">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AX48" s="13">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="13">
         <v>0</v>
@@ -6904,32 +6904,32 @@
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU49" s="11" t="s">
-        <v>58</v>
+      <c r="AT49" s="11">
+        <v>32437</v>
+      </c>
+      <c r="AU49" s="11">
+        <v>45270</v>
       </c>
       <c r="AV49" s="11">
-        <v>32437</v>
+        <v>36529</v>
       </c>
       <c r="AW49" s="11">
-        <v>45270</v>
+        <v>7698</v>
       </c>
       <c r="AX49" s="11">
-        <v>36529</v>
+        <v>11700</v>
       </c>
       <c r="AY49" s="11">
-        <v>7698</v>
+        <v>6510</v>
       </c>
       <c r="AZ49" s="11">
-        <v>11700</v>
+        <v>12118</v>
       </c>
       <c r="BA49" s="11">
-        <v>6510</v>
+        <v>19857</v>
       </c>
       <c r="BB49" s="11">
-        <v>12118</v>
+        <v>24982</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7063,32 +7063,32 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>23230</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>43566</v>
       </c>
       <c r="AV50" s="13">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AW50" s="13">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AX50" s="13">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AY50" s="13">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AZ50" s="13">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="BA50" s="13">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="BB50" s="13">
-        <v>5194</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7222,32 +7222,32 @@
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU51" s="11" t="s">
-        <v>58</v>
+      <c r="AT51" s="11">
+        <v>30194</v>
+      </c>
+      <c r="AU51" s="11">
+        <v>8880</v>
       </c>
       <c r="AV51" s="11">
-        <v>30194</v>
+        <v>5549</v>
       </c>
       <c r="AW51" s="11">
-        <v>8880</v>
+        <v>3845</v>
       </c>
       <c r="AX51" s="11">
-        <v>5549</v>
+        <v>5211</v>
       </c>
       <c r="AY51" s="11">
-        <v>3845</v>
+        <v>7782</v>
       </c>
       <c r="AZ51" s="11">
-        <v>5211</v>
+        <v>10543</v>
       </c>
       <c r="BA51" s="11">
-        <v>7782</v>
+        <v>10894</v>
       </c>
       <c r="BB51" s="11">
-        <v>10543</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7381,20 +7381,20 @@
       <c r="AS52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU52" s="13" t="s">
-        <v>58</v>
+      <c r="AT52" s="13">
+        <v>2056</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>563</v>
       </c>
       <c r="AV52" s="13">
-        <v>2056</v>
+        <v>31</v>
       </c>
       <c r="AW52" s="13">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AX52" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="13">
         <v>0</v>
@@ -7540,11 +7540,11 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AT53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="11">
+        <v>0</v>
       </c>
       <c r="AV53" s="11">
         <v>0</v>
@@ -7635,94 +7635,94 @@
         <v>0</v>
       </c>
       <c r="Y54" s="15">
-        <v>0</v>
+        <v>203157</v>
       </c>
       <c r="Z54" s="15">
-        <v>0</v>
+        <v>171574</v>
       </c>
       <c r="AA54" s="15">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="AB54" s="15">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AC54" s="15">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AD54" s="15">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AE54" s="15">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AF54" s="15">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AG54" s="15">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AH54" s="15">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AI54" s="15">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AJ54" s="15">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AK54" s="15">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AL54" s="15">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AM54" s="15">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AN54" s="15">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AO54" s="15">
-        <v>175920</v>
+        <v>130637</v>
       </c>
       <c r="AP54" s="15">
-        <v>148852</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="15">
-        <v>130637</v>
+        <v>24493</v>
       </c>
       <c r="AR54" s="15">
-        <v>0</v>
+        <v>39776</v>
       </c>
       <c r="AS54" s="15">
-        <v>24493</v>
+        <v>129745</v>
       </c>
       <c r="AT54" s="15">
-        <v>39776</v>
+        <v>168065</v>
       </c>
       <c r="AU54" s="15">
-        <v>129745</v>
+        <v>148833</v>
       </c>
       <c r="AV54" s="15">
-        <v>168065</v>
+        <v>166984</v>
       </c>
       <c r="AW54" s="15">
-        <v>148833</v>
+        <v>127032</v>
       </c>
       <c r="AX54" s="15">
-        <v>166984</v>
+        <v>124158</v>
       </c>
       <c r="AY54" s="15">
-        <v>127032</v>
+        <v>154038</v>
       </c>
       <c r="AZ54" s="15">
-        <v>124158</v>
+        <v>131647</v>
       </c>
       <c r="BA54" s="15">
-        <v>154038</v>
+        <v>135440</v>
       </c>
       <c r="BB54" s="15">
-        <v>131647</v>
+        <v>103732</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7913,32 +7913,32 @@
       <c r="AS56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>58</v>
+      <c r="AT56" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>3209</v>
       </c>
       <c r="AV56" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AW56" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AX56" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AY56" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AZ56" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="BA56" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="BB56" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8009,74 +8009,74 @@
       <c r="X57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="13" t="s">
-        <v>58</v>
+      <c r="Y57" s="13">
+        <v>23</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
       </c>
       <c r="AA57" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="13">
         <v>0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AD57" s="13">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AE57" s="13">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="13">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AG57" s="13">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AH57" s="13">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AI57" s="13">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AJ57" s="13">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AK57" s="13">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AL57" s="13">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AM57" s="13">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AN57" s="13">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AO57" s="13">
-        <v>6875</v>
-      </c>
-      <c r="AP57" s="13">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AP57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ57" s="13">
-        <v>3756</v>
-      </c>
-      <c r="AR57" s="13" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="AR57" s="13">
+        <v>3361</v>
       </c>
       <c r="AS57" s="13">
-        <v>25</v>
-      </c>
-      <c r="AT57" s="13">
-        <v>3361</v>
-      </c>
-      <c r="AU57" s="13">
         <v>13891</v>
+      </c>
+      <c r="AT57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV57" s="13" t="s">
         <v>58</v>
@@ -8168,74 +8168,74 @@
       <c r="X58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="11" t="s">
-        <v>58</v>
+      <c r="Y58" s="11">
+        <v>12327</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>12761</v>
       </c>
       <c r="AA58" s="11">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="AB58" s="11">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC58" s="11">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AD58" s="11">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AE58" s="11">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AF58" s="11">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AG58" s="11">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AH58" s="11">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AI58" s="11">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AJ58" s="11">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AK58" s="11">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AL58" s="11">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AM58" s="11">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AN58" s="11">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AO58" s="11">
-        <v>7618</v>
-      </c>
-      <c r="AP58" s="11">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AP58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ58" s="11">
-        <v>2759</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>58</v>
+        <v>419</v>
+      </c>
+      <c r="AR58" s="11">
+        <v>322</v>
       </c>
       <c r="AS58" s="11">
-        <v>419</v>
-      </c>
-      <c r="AT58" s="11">
-        <v>322</v>
-      </c>
-      <c r="AU58" s="11">
         <v>1859</v>
+      </c>
+      <c r="AT58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV58" s="11" t="s">
         <v>58</v>
@@ -8390,32 +8390,32 @@
       <c r="AS59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU59" s="13" t="s">
-        <v>58</v>
+      <c r="AT59" s="13">
+        <v>1708</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>2098</v>
       </c>
       <c r="AV59" s="13">
-        <v>1708</v>
+        <v>2802</v>
       </c>
       <c r="AW59" s="13">
-        <v>2098</v>
+        <v>2014</v>
       </c>
       <c r="AX59" s="13">
-        <v>2802</v>
+        <v>2244</v>
       </c>
       <c r="AY59" s="13">
-        <v>2014</v>
+        <v>277</v>
       </c>
       <c r="AZ59" s="13">
-        <v>2244</v>
+        <v>420</v>
       </c>
       <c r="BA59" s="13">
-        <v>277</v>
+        <v>829</v>
       </c>
       <c r="BB59" s="13">
-        <v>420</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8549,32 +8549,32 @@
       <c r="AS60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU60" s="11" t="s">
-        <v>58</v>
+      <c r="AT60" s="11">
+        <v>1657</v>
+      </c>
+      <c r="AU60" s="11">
+        <v>2448</v>
       </c>
       <c r="AV60" s="11">
-        <v>1657</v>
+        <v>2638</v>
       </c>
       <c r="AW60" s="11">
-        <v>2448</v>
+        <v>1893</v>
       </c>
       <c r="AX60" s="11">
-        <v>2638</v>
+        <v>2364</v>
       </c>
       <c r="AY60" s="11">
-        <v>1893</v>
+        <v>1942</v>
       </c>
       <c r="AZ60" s="11">
-        <v>2364</v>
+        <v>2557</v>
       </c>
       <c r="BA60" s="11">
-        <v>1942</v>
+        <v>4549</v>
       </c>
       <c r="BB60" s="11">
-        <v>2557</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8644,94 +8644,94 @@
         <v>0</v>
       </c>
       <c r="Y61" s="15">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="Z61" s="15">
-        <v>0</v>
+        <v>12761</v>
       </c>
       <c r="AA61" s="15">
-        <v>12350</v>
+        <v>12866</v>
       </c>
       <c r="AB61" s="15">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC61" s="15">
-        <v>12866</v>
+        <v>3741</v>
       </c>
       <c r="AD61" s="15">
-        <v>4097</v>
+        <v>8366</v>
       </c>
       <c r="AE61" s="15">
-        <v>3741</v>
+        <v>2341</v>
       </c>
       <c r="AF61" s="15">
-        <v>8366</v>
+        <v>8130</v>
       </c>
       <c r="AG61" s="15">
-        <v>2341</v>
+        <v>3369</v>
       </c>
       <c r="AH61" s="15">
-        <v>8130</v>
+        <v>14173</v>
       </c>
       <c r="AI61" s="15">
-        <v>3369</v>
+        <v>11674</v>
       </c>
       <c r="AJ61" s="15">
-        <v>14173</v>
+        <v>10986</v>
       </c>
       <c r="AK61" s="15">
-        <v>11674</v>
+        <v>9524</v>
       </c>
       <c r="AL61" s="15">
-        <v>10986</v>
+        <v>8050</v>
       </c>
       <c r="AM61" s="15">
-        <v>9524</v>
+        <v>14493</v>
       </c>
       <c r="AN61" s="15">
-        <v>8050</v>
+        <v>4732</v>
       </c>
       <c r="AO61" s="15">
-        <v>14493</v>
+        <v>6515</v>
       </c>
       <c r="AP61" s="15">
-        <v>4732</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="15">
-        <v>6515</v>
+        <v>444</v>
       </c>
       <c r="AR61" s="15">
-        <v>0</v>
+        <v>3683</v>
       </c>
       <c r="AS61" s="15">
-        <v>444</v>
+        <v>15750</v>
       </c>
       <c r="AT61" s="15">
-        <v>3683</v>
+        <v>17194</v>
       </c>
       <c r="AU61" s="15">
-        <v>15750</v>
+        <v>7755</v>
       </c>
       <c r="AV61" s="15">
-        <v>17194</v>
+        <v>8419</v>
       </c>
       <c r="AW61" s="15">
-        <v>7755</v>
+        <v>4411</v>
       </c>
       <c r="AX61" s="15">
-        <v>8419</v>
+        <v>11134</v>
       </c>
       <c r="AY61" s="15">
-        <v>4411</v>
+        <v>5597</v>
       </c>
       <c r="AZ61" s="15">
-        <v>11134</v>
+        <v>4353</v>
       </c>
       <c r="BA61" s="15">
-        <v>5597</v>
+        <v>17445</v>
       </c>
       <c r="BB61" s="15">
-        <v>4353</v>
+        <v>23705</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8857,11 +8857,11 @@
       <c r="X63" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="19" t="s">
-        <v>58</v>
+      <c r="Y63" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="19">
+        <v>0</v>
       </c>
       <c r="AA63" s="19">
         <v>0</v>
@@ -9071,11 +9071,11 @@
       <c r="X65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="19" t="s">
-        <v>58</v>
+      <c r="Y65" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="19">
+        <v>0</v>
       </c>
       <c r="AA65" s="19">
         <v>0</v>
@@ -9229,94 +9229,94 @@
         <v>0</v>
       </c>
       <c r="Y66" s="15">
-        <v>0</v>
+        <v>215507</v>
       </c>
       <c r="Z66" s="15">
-        <v>0</v>
+        <v>184335</v>
       </c>
       <c r="AA66" s="15">
-        <v>215507</v>
+        <v>168485</v>
       </c>
       <c r="AB66" s="15">
-        <v>184335</v>
+        <v>157636</v>
       </c>
       <c r="AC66" s="15">
-        <v>168485</v>
+        <v>165019</v>
       </c>
       <c r="AD66" s="15">
-        <v>157636</v>
+        <v>106660</v>
       </c>
       <c r="AE66" s="15">
-        <v>165019</v>
+        <v>56803</v>
       </c>
       <c r="AF66" s="15">
-        <v>106660</v>
+        <v>102051</v>
       </c>
       <c r="AG66" s="15">
-        <v>56803</v>
+        <v>115893</v>
       </c>
       <c r="AH66" s="15">
-        <v>102051</v>
+        <v>155210</v>
       </c>
       <c r="AI66" s="15">
-        <v>115893</v>
+        <v>186880</v>
       </c>
       <c r="AJ66" s="15">
-        <v>155210</v>
+        <v>183225</v>
       </c>
       <c r="AK66" s="15">
-        <v>186880</v>
+        <v>159512</v>
       </c>
       <c r="AL66" s="15">
-        <v>183225</v>
+        <v>148999</v>
       </c>
       <c r="AM66" s="15">
-        <v>159512</v>
+        <v>190413</v>
       </c>
       <c r="AN66" s="15">
-        <v>148999</v>
+        <v>153584</v>
       </c>
       <c r="AO66" s="15">
-        <v>190413</v>
+        <v>137152</v>
       </c>
       <c r="AP66" s="15">
-        <v>153584</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="15">
-        <v>137152</v>
+        <v>24937</v>
       </c>
       <c r="AR66" s="15">
-        <v>0</v>
+        <v>43459</v>
       </c>
       <c r="AS66" s="15">
-        <v>24937</v>
+        <v>145495</v>
       </c>
       <c r="AT66" s="15">
-        <v>43459</v>
+        <v>185259</v>
       </c>
       <c r="AU66" s="15">
-        <v>145495</v>
+        <v>156588</v>
       </c>
       <c r="AV66" s="15">
-        <v>185259</v>
+        <v>175403</v>
       </c>
       <c r="AW66" s="15">
-        <v>156588</v>
+        <v>131443</v>
       </c>
       <c r="AX66" s="15">
-        <v>175403</v>
+        <v>135292</v>
       </c>
       <c r="AY66" s="15">
-        <v>131443</v>
+        <v>159635</v>
       </c>
       <c r="AZ66" s="15">
-        <v>135292</v>
+        <v>136000</v>
       </c>
       <c r="BA66" s="15">
-        <v>159635</v>
+        <v>152885</v>
       </c>
       <c r="BB66" s="15">
-        <v>136000</v>
+        <v>127437</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9884,11 +9884,11 @@
       <c r="AS73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU73" s="11" t="s">
-        <v>58</v>
+      <c r="AT73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="11">
+        <v>0</v>
       </c>
       <c r="AV73" s="11">
         <v>0</v>
@@ -10043,23 +10043,23 @@
       <c r="AS74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU74" s="13" t="s">
-        <v>58</v>
+      <c r="AT74" s="13">
+        <v>383</v>
+      </c>
+      <c r="AU74" s="13">
+        <v>5982</v>
       </c>
       <c r="AV74" s="13">
-        <v>383</v>
+        <v>27963</v>
       </c>
       <c r="AW74" s="13">
-        <v>5982</v>
+        <v>4364</v>
       </c>
       <c r="AX74" s="13">
-        <v>27963</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
-        <v>4364</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
@@ -10205,14 +10205,14 @@
       <c r="AT75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV75" s="11" t="s">
-        <v>58</v>
+      <c r="AU75" s="11">
+        <v>514</v>
+      </c>
+      <c r="AV75" s="11">
+        <v>0</v>
       </c>
       <c r="AW75" s="11">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="11">
         <v>0</v>
@@ -10298,74 +10298,74 @@
       <c r="X76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z76" s="13" t="s">
-        <v>58</v>
+      <c r="Y76" s="13">
+        <v>466204</v>
+      </c>
+      <c r="Z76" s="13">
+        <v>417403</v>
       </c>
       <c r="AA76" s="13">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="AB76" s="13">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AC76" s="13">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AD76" s="13">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AE76" s="13">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AF76" s="13">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AG76" s="13">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AH76" s="13">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AI76" s="13">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AJ76" s="13">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AK76" s="13">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AL76" s="13">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AM76" s="13">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AN76" s="13">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AO76" s="13">
-        <v>1031697</v>
-      </c>
-      <c r="AP76" s="13">
-        <v>684173</v>
+        <v>574236</v>
+      </c>
+      <c r="AP76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ76" s="13">
-        <v>574236</v>
-      </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
+        <v>102713</v>
+      </c>
+      <c r="AR76" s="13">
+        <v>185729</v>
       </c>
       <c r="AS76" s="13">
-        <v>102713</v>
-      </c>
-      <c r="AT76" s="13">
-        <v>185729</v>
-      </c>
-      <c r="AU76" s="13">
         <v>642327</v>
+      </c>
+      <c r="AT76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="13" t="s">
         <v>58</v>
@@ -10457,11 +10457,11 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>0</v>
       </c>
       <c r="AA77" s="11">
         <v>0</v>
@@ -10508,23 +10508,23 @@
       <c r="AO77" s="11">
         <v>0</v>
       </c>
-      <c r="AP77" s="11">
-        <v>0</v>
+      <c r="AP77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ77" s="11">
         <v>0</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>0</v>
       </c>
       <c r="AS77" s="11">
         <v>0</v>
       </c>
-      <c r="AT77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU77" s="11">
-        <v>0</v>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>58</v>
@@ -10679,32 +10679,32 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>138585</v>
+      </c>
+      <c r="AU78" s="13">
+        <v>80015</v>
       </c>
       <c r="AV78" s="13">
-        <v>138585</v>
+        <v>176163</v>
       </c>
       <c r="AW78" s="13">
-        <v>80015</v>
+        <v>291764</v>
       </c>
       <c r="AX78" s="13">
-        <v>176163</v>
+        <v>285410</v>
       </c>
       <c r="AY78" s="13">
-        <v>291764</v>
+        <v>364992</v>
       </c>
       <c r="AZ78" s="13">
-        <v>285410</v>
+        <v>277224</v>
       </c>
       <c r="BA78" s="13">
-        <v>364992</v>
+        <v>264949</v>
       </c>
       <c r="BB78" s="13">
-        <v>277224</v>
+        <v>187535</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10838,32 +10838,32 @@
       <c r="AS79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>58</v>
+      <c r="AT79" s="11">
+        <v>282166</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>185207</v>
       </c>
       <c r="AV79" s="11">
-        <v>282166</v>
+        <v>345044</v>
       </c>
       <c r="AW79" s="11">
-        <v>185207</v>
+        <v>380389</v>
       </c>
       <c r="AX79" s="11">
-        <v>345044</v>
+        <v>342032</v>
       </c>
       <c r="AY79" s="11">
-        <v>380389</v>
+        <v>451732</v>
       </c>
       <c r="AZ79" s="11">
-        <v>342032</v>
+        <v>347673</v>
       </c>
       <c r="BA79" s="11">
-        <v>451732</v>
+        <v>307363</v>
       </c>
       <c r="BB79" s="11">
-        <v>347673</v>
+        <v>201432</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10997,23 +10997,23 @@
       <c r="AS80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU80" s="13" t="s">
-        <v>58</v>
+      <c r="AT80" s="13">
+        <v>166</v>
+      </c>
+      <c r="AU80" s="13">
+        <v>3486</v>
       </c>
       <c r="AV80" s="13">
-        <v>166</v>
+        <v>5883</v>
       </c>
       <c r="AW80" s="13">
-        <v>3486</v>
+        <v>619</v>
       </c>
       <c r="AX80" s="13">
-        <v>5883</v>
+        <v>0</v>
       </c>
       <c r="AY80" s="13">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AZ80" s="13">
         <v>0</v>
@@ -11156,32 +11156,32 @@
       <c r="AS81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU81" s="11" t="s">
-        <v>58</v>
+      <c r="AT81" s="11">
+        <v>148012</v>
+      </c>
+      <c r="AU81" s="11">
+        <v>220950</v>
       </c>
       <c r="AV81" s="11">
-        <v>148012</v>
+        <v>193683</v>
       </c>
       <c r="AW81" s="11">
-        <v>220950</v>
+        <v>42458</v>
       </c>
       <c r="AX81" s="11">
-        <v>193683</v>
+        <v>64244</v>
       </c>
       <c r="AY81" s="11">
-        <v>42458</v>
+        <v>35298</v>
       </c>
       <c r="AZ81" s="11">
-        <v>64244</v>
+        <v>62922</v>
       </c>
       <c r="BA81" s="11">
-        <v>35298</v>
+        <v>100129</v>
       </c>
       <c r="BB81" s="11">
-        <v>62922</v>
+        <v>124937</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11315,32 +11315,32 @@
       <c r="AS82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU82" s="13" t="s">
-        <v>58</v>
+      <c r="AT82" s="13">
+        <v>129823</v>
+      </c>
+      <c r="AU82" s="13">
+        <v>244427</v>
       </c>
       <c r="AV82" s="13">
-        <v>129823</v>
+        <v>247658</v>
       </c>
       <c r="AW82" s="13">
-        <v>244427</v>
+        <v>57581</v>
       </c>
       <c r="AX82" s="13">
-        <v>247658</v>
+        <v>30235</v>
       </c>
       <c r="AY82" s="13">
-        <v>57581</v>
+        <v>30629</v>
       </c>
       <c r="AZ82" s="13">
-        <v>30235</v>
+        <v>33683</v>
       </c>
       <c r="BA82" s="13">
-        <v>30629</v>
+        <v>53545</v>
       </c>
       <c r="BB82" s="13">
-        <v>33683</v>
+        <v>37553</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11474,32 +11474,32 @@
       <c r="AS83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU83" s="11" t="s">
-        <v>58</v>
+      <c r="AT83" s="11">
+        <v>150205</v>
+      </c>
+      <c r="AU83" s="11">
+        <v>44996</v>
       </c>
       <c r="AV83" s="11">
-        <v>150205</v>
+        <v>35002</v>
       </c>
       <c r="AW83" s="11">
-        <v>44996</v>
+        <v>26078</v>
       </c>
       <c r="AX83" s="11">
-        <v>35002</v>
+        <v>33744</v>
       </c>
       <c r="AY83" s="11">
-        <v>26078</v>
+        <v>49053</v>
       </c>
       <c r="AZ83" s="11">
-        <v>33744</v>
+        <v>61861</v>
       </c>
       <c r="BA83" s="11">
-        <v>49053</v>
+        <v>62877</v>
       </c>
       <c r="BB83" s="11">
-        <v>61861</v>
+        <v>29791</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11633,20 +11633,20 @@
       <c r="AS84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU84" s="13" t="s">
-        <v>58</v>
+      <c r="AT84" s="13">
+        <v>10245</v>
+      </c>
+      <c r="AU84" s="13">
+        <v>3038</v>
       </c>
       <c r="AV84" s="13">
-        <v>10245</v>
+        <v>147</v>
       </c>
       <c r="AW84" s="13">
-        <v>3038</v>
+        <v>0</v>
       </c>
       <c r="AX84" s="13">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="13">
         <v>0</v>
@@ -11792,11 +11792,11 @@
       <c r="AS85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU85" s="11" t="s">
-        <v>58</v>
+      <c r="AT85" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="11">
+        <v>0</v>
       </c>
       <c r="AV85" s="11">
         <v>0</v>
@@ -11887,94 +11887,94 @@
         <v>0</v>
       </c>
       <c r="Y86" s="15">
-        <v>0</v>
+        <v>466204</v>
       </c>
       <c r="Z86" s="15">
-        <v>0</v>
+        <v>417403</v>
       </c>
       <c r="AA86" s="15">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="AB86" s="15">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AC86" s="15">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AD86" s="15">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AE86" s="15">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AF86" s="15">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AG86" s="15">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AH86" s="15">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AI86" s="15">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AJ86" s="15">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AK86" s="15">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AL86" s="15">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AM86" s="15">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AN86" s="15">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AO86" s="15">
-        <v>1031697</v>
+        <v>574236</v>
       </c>
       <c r="AP86" s="15">
-        <v>684173</v>
+        <v>0</v>
       </c>
       <c r="AQ86" s="15">
-        <v>574236</v>
+        <v>102713</v>
       </c>
       <c r="AR86" s="15">
-        <v>0</v>
+        <v>185729</v>
       </c>
       <c r="AS86" s="15">
-        <v>102713</v>
+        <v>642327</v>
       </c>
       <c r="AT86" s="15">
-        <v>185729</v>
+        <v>859585</v>
       </c>
       <c r="AU86" s="15">
-        <v>642327</v>
+        <v>788615</v>
       </c>
       <c r="AV86" s="15">
-        <v>859585</v>
+        <v>1031543</v>
       </c>
       <c r="AW86" s="15">
-        <v>788615</v>
+        <v>803253</v>
       </c>
       <c r="AX86" s="15">
-        <v>1031543</v>
+        <v>755665</v>
       </c>
       <c r="AY86" s="15">
-        <v>803253</v>
+        <v>931704</v>
       </c>
       <c r="AZ86" s="15">
-        <v>755665</v>
+        <v>783363</v>
       </c>
       <c r="BA86" s="15">
-        <v>931704</v>
+        <v>788863</v>
       </c>
       <c r="BB86" s="15">
-        <v>783363</v>
+        <v>581248</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12165,32 +12165,32 @@
       <c r="AS88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU88" s="11" t="s">
-        <v>58</v>
+      <c r="AT88" s="11">
+        <v>92839</v>
+      </c>
+      <c r="AU88" s="11">
+        <v>21774</v>
       </c>
       <c r="AV88" s="11">
-        <v>92839</v>
+        <v>23054</v>
       </c>
       <c r="AW88" s="11">
-        <v>21774</v>
+        <v>4120</v>
       </c>
       <c r="AX88" s="11">
-        <v>23054</v>
+        <v>51638</v>
       </c>
       <c r="AY88" s="11">
-        <v>4120</v>
+        <v>18378</v>
       </c>
       <c r="AZ88" s="11">
-        <v>51638</v>
+        <v>6116</v>
       </c>
       <c r="BA88" s="11">
-        <v>18378</v>
+        <v>50303</v>
       </c>
       <c r="BB88" s="11">
-        <v>6116</v>
+        <v>72710</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12261,74 +12261,74 @@
       <c r="X89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z89" s="13" t="s">
-        <v>58</v>
+      <c r="Y89" s="13">
+        <v>32</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>0</v>
       </c>
       <c r="AA89" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="13">
         <v>0</v>
       </c>
       <c r="AC89" s="13">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="AD89" s="13">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="AE89" s="13">
-        <v>1499</v>
+        <v>0</v>
       </c>
       <c r="AF89" s="13">
-        <v>3337</v>
+        <v>183</v>
       </c>
       <c r="AG89" s="13">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AH89" s="13">
-        <v>183</v>
+        <v>31616</v>
       </c>
       <c r="AI89" s="13">
-        <v>1750</v>
+        <v>35500</v>
       </c>
       <c r="AJ89" s="13">
-        <v>31616</v>
+        <v>46354</v>
       </c>
       <c r="AK89" s="13">
-        <v>35500</v>
+        <v>37105</v>
       </c>
       <c r="AL89" s="13">
-        <v>46354</v>
+        <v>19254</v>
       </c>
       <c r="AM89" s="13">
-        <v>37105</v>
+        <v>48675</v>
       </c>
       <c r="AN89" s="13">
-        <v>19254</v>
+        <v>6628</v>
       </c>
       <c r="AO89" s="13">
-        <v>48675</v>
-      </c>
-      <c r="AP89" s="13">
-        <v>6628</v>
+        <v>22867</v>
+      </c>
+      <c r="AP89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ89" s="13">
-        <v>22867</v>
-      </c>
-      <c r="AR89" s="13" t="s">
-        <v>58</v>
+        <v>162</v>
+      </c>
+      <c r="AR89" s="13">
+        <v>19886</v>
       </c>
       <c r="AS89" s="13">
-        <v>162</v>
-      </c>
-      <c r="AT89" s="13">
-        <v>19886</v>
-      </c>
-      <c r="AU89" s="13">
         <v>83647</v>
+      </c>
+      <c r="AT89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV89" s="13" t="s">
         <v>58</v>
@@ -12420,74 +12420,74 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>32084</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>32354</v>
       </c>
       <c r="AA90" s="11">
-        <v>32084</v>
+        <v>36962</v>
       </c>
       <c r="AB90" s="11">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AC90" s="11">
-        <v>36962</v>
+        <v>13630</v>
       </c>
       <c r="AD90" s="11">
-        <v>13634</v>
+        <v>24835</v>
       </c>
       <c r="AE90" s="11">
-        <v>13630</v>
+        <v>7977</v>
       </c>
       <c r="AF90" s="11">
-        <v>24835</v>
+        <v>26884</v>
       </c>
       <c r="AG90" s="11">
-        <v>7977</v>
+        <v>8819</v>
       </c>
       <c r="AH90" s="11">
-        <v>26884</v>
+        <v>31546</v>
       </c>
       <c r="AI90" s="11">
-        <v>8819</v>
+        <v>12261</v>
       </c>
       <c r="AJ90" s="11">
-        <v>31546</v>
+        <v>8184</v>
       </c>
       <c r="AK90" s="11">
-        <v>12261</v>
+        <v>15536</v>
       </c>
       <c r="AL90" s="11">
-        <v>8184</v>
+        <v>35926</v>
       </c>
       <c r="AM90" s="11">
-        <v>15536</v>
+        <v>58209</v>
       </c>
       <c r="AN90" s="11">
-        <v>35926</v>
+        <v>28979</v>
       </c>
       <c r="AO90" s="11">
-        <v>58209</v>
-      </c>
-      <c r="AP90" s="11">
-        <v>28979</v>
+        <v>19680</v>
+      </c>
+      <c r="AP90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ90" s="11">
-        <v>19680</v>
-      </c>
-      <c r="AR90" s="11" t="s">
-        <v>58</v>
+        <v>3969</v>
+      </c>
+      <c r="AR90" s="11">
+        <v>2769</v>
       </c>
       <c r="AS90" s="11">
-        <v>3969</v>
-      </c>
-      <c r="AT90" s="11">
-        <v>2769</v>
-      </c>
-      <c r="AU90" s="11">
         <v>15476</v>
+      </c>
+      <c r="AT90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV90" s="11" t="s">
         <v>58</v>
@@ -12642,32 +12642,32 @@
       <c r="AS91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU91" s="13" t="s">
-        <v>58</v>
+      <c r="AT91" s="13">
+        <v>11454</v>
+      </c>
+      <c r="AU91" s="13">
+        <v>12981</v>
       </c>
       <c r="AV91" s="13">
-        <v>11454</v>
+        <v>15993</v>
       </c>
       <c r="AW91" s="13">
-        <v>12981</v>
+        <v>11260</v>
       </c>
       <c r="AX91" s="13">
-        <v>15993</v>
+        <v>13422</v>
       </c>
       <c r="AY91" s="13">
-        <v>11260</v>
+        <v>1664</v>
       </c>
       <c r="AZ91" s="13">
-        <v>13422</v>
+        <v>2560</v>
       </c>
       <c r="BA91" s="13">
-        <v>1664</v>
+        <v>5147</v>
       </c>
       <c r="BB91" s="13">
-        <v>2560</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12801,32 +12801,32 @@
       <c r="AS92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU92" s="11" t="s">
-        <v>58</v>
+      <c r="AT92" s="11">
+        <v>15263</v>
+      </c>
+      <c r="AU92" s="11">
+        <v>23495</v>
       </c>
       <c r="AV92" s="11">
-        <v>15263</v>
+        <v>26172</v>
       </c>
       <c r="AW92" s="11">
-        <v>23495</v>
+        <v>20146</v>
       </c>
       <c r="AX92" s="11">
-        <v>26172</v>
+        <v>24437</v>
       </c>
       <c r="AY92" s="11">
-        <v>20146</v>
+        <v>14809</v>
       </c>
       <c r="AZ92" s="11">
-        <v>24437</v>
+        <v>19608</v>
       </c>
       <c r="BA92" s="11">
-        <v>14809</v>
+        <v>34853</v>
       </c>
       <c r="BB92" s="11">
-        <v>19608</v>
+        <v>17481</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12896,94 +12896,94 @@
         <v>0</v>
       </c>
       <c r="Y93" s="15">
-        <v>0</v>
+        <v>32116</v>
       </c>
       <c r="Z93" s="15">
-        <v>0</v>
+        <v>32354</v>
       </c>
       <c r="AA93" s="15">
-        <v>32116</v>
+        <v>36962</v>
       </c>
       <c r="AB93" s="15">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AC93" s="15">
-        <v>36962</v>
+        <v>15129</v>
       </c>
       <c r="AD93" s="15">
-        <v>13634</v>
+        <v>28172</v>
       </c>
       <c r="AE93" s="15">
-        <v>15129</v>
+        <v>7977</v>
       </c>
       <c r="AF93" s="15">
-        <v>28172</v>
+        <v>27067</v>
       </c>
       <c r="AG93" s="15">
-        <v>7977</v>
+        <v>10569</v>
       </c>
       <c r="AH93" s="15">
-        <v>27067</v>
+        <v>63162</v>
       </c>
       <c r="AI93" s="15">
-        <v>10569</v>
+        <v>47761</v>
       </c>
       <c r="AJ93" s="15">
-        <v>63162</v>
+        <v>54538</v>
       </c>
       <c r="AK93" s="15">
-        <v>47761</v>
+        <v>52641</v>
       </c>
       <c r="AL93" s="15">
-        <v>54538</v>
+        <v>55180</v>
       </c>
       <c r="AM93" s="15">
-        <v>52641</v>
+        <v>106884</v>
       </c>
       <c r="AN93" s="15">
-        <v>55180</v>
+        <v>35607</v>
       </c>
       <c r="AO93" s="15">
-        <v>106884</v>
+        <v>42547</v>
       </c>
       <c r="AP93" s="15">
-        <v>35607</v>
+        <v>0</v>
       </c>
       <c r="AQ93" s="15">
-        <v>42547</v>
+        <v>4131</v>
       </c>
       <c r="AR93" s="15">
-        <v>0</v>
+        <v>22655</v>
       </c>
       <c r="AS93" s="15">
-        <v>4131</v>
+        <v>99123</v>
       </c>
       <c r="AT93" s="15">
-        <v>22655</v>
+        <v>119556</v>
       </c>
       <c r="AU93" s="15">
-        <v>99123</v>
+        <v>58250</v>
       </c>
       <c r="AV93" s="15">
-        <v>119556</v>
+        <v>65219</v>
       </c>
       <c r="AW93" s="15">
-        <v>58250</v>
+        <v>35526</v>
       </c>
       <c r="AX93" s="15">
-        <v>65219</v>
+        <v>89497</v>
       </c>
       <c r="AY93" s="15">
-        <v>35526</v>
+        <v>34851</v>
       </c>
       <c r="AZ93" s="15">
-        <v>89497</v>
+        <v>28284</v>
       </c>
       <c r="BA93" s="15">
-        <v>34851</v>
+        <v>90303</v>
       </c>
       <c r="BB93" s="15">
-        <v>28284</v>
+        <v>98990</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13111,11 +13111,11 @@
       <c r="X95" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z95" s="19" t="s">
-        <v>58</v>
+      <c r="Y95" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="19">
+        <v>0</v>
       </c>
       <c r="AA95" s="19">
         <v>0</v>
@@ -13327,11 +13327,11 @@
       <c r="X97" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="19" t="s">
-        <v>58</v>
+      <c r="Y97" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="19">
+        <v>0</v>
       </c>
       <c r="AA97" s="19">
         <v>0</v>
@@ -13543,11 +13543,11 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>0</v>
       </c>
       <c r="AA99" s="11">
         <v>0</v>
@@ -13701,94 +13701,94 @@
         <v>0</v>
       </c>
       <c r="Y100" s="15">
-        <v>0</v>
+        <v>498320</v>
       </c>
       <c r="Z100" s="15">
-        <v>0</v>
+        <v>449757</v>
       </c>
       <c r="AA100" s="15">
-        <v>498320</v>
+        <v>422623</v>
       </c>
       <c r="AB100" s="15">
-        <v>449757</v>
+        <v>405092</v>
       </c>
       <c r="AC100" s="15">
-        <v>422623</v>
+        <v>442026</v>
       </c>
       <c r="AD100" s="15">
-        <v>405092</v>
+        <v>280728</v>
       </c>
       <c r="AE100" s="15">
-        <v>442026</v>
+        <v>148180</v>
       </c>
       <c r="AF100" s="15">
-        <v>280728</v>
+        <v>283021</v>
       </c>
       <c r="AG100" s="15">
-        <v>148180</v>
+        <v>314326</v>
       </c>
       <c r="AH100" s="15">
-        <v>283021</v>
+        <v>464238</v>
       </c>
       <c r="AI100" s="15">
-        <v>314326</v>
+        <v>703795</v>
       </c>
       <c r="AJ100" s="15">
-        <v>464238</v>
+        <v>714509</v>
       </c>
       <c r="AK100" s="15">
-        <v>703795</v>
+        <v>762965</v>
       </c>
       <c r="AL100" s="15">
-        <v>714509</v>
+        <v>867508</v>
       </c>
       <c r="AM100" s="15">
-        <v>762965</v>
+        <v>1138581</v>
       </c>
       <c r="AN100" s="15">
-        <v>867508</v>
+        <v>719780</v>
       </c>
       <c r="AO100" s="15">
-        <v>1138581</v>
+        <v>616783</v>
       </c>
       <c r="AP100" s="15">
-        <v>719780</v>
+        <v>0</v>
       </c>
       <c r="AQ100" s="15">
-        <v>616783</v>
+        <v>106844</v>
       </c>
       <c r="AR100" s="15">
-        <v>0</v>
+        <v>208384</v>
       </c>
       <c r="AS100" s="15">
-        <v>106844</v>
+        <v>741450</v>
       </c>
       <c r="AT100" s="15">
-        <v>208384</v>
+        <v>979141</v>
       </c>
       <c r="AU100" s="15">
-        <v>741450</v>
+        <v>846865</v>
       </c>
       <c r="AV100" s="15">
-        <v>979141</v>
+        <v>1096762</v>
       </c>
       <c r="AW100" s="15">
-        <v>846865</v>
+        <v>838779</v>
       </c>
       <c r="AX100" s="15">
-        <v>1096762</v>
+        <v>845162</v>
       </c>
       <c r="AY100" s="15">
-        <v>838779</v>
+        <v>966555</v>
       </c>
       <c r="AZ100" s="15">
-        <v>845162</v>
+        <v>811647</v>
       </c>
       <c r="BA100" s="15">
-        <v>966555</v>
+        <v>879166</v>
       </c>
       <c r="BB100" s="15">
-        <v>811647</v>
+        <v>680238</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14356,23 +14356,23 @@
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU107" s="11" t="s">
-        <v>58</v>
+      <c r="AT107" s="11">
+        <v>5471429</v>
+      </c>
+      <c r="AU107" s="11">
+        <v>5940417</v>
       </c>
       <c r="AV107" s="11">
-        <v>5471429</v>
+        <v>6136274</v>
       </c>
       <c r="AW107" s="11">
-        <v>5940417</v>
-      </c>
-      <c r="AX107" s="11">
-        <v>6136274</v>
-      </c>
-      <c r="AY107" s="11">
         <v>7359191</v>
+      </c>
+      <c r="AX107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ107" s="11" t="s">
         <v>58</v>
@@ -14518,14 +14518,14 @@
       <c r="AT108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU108" s="13" t="s">
-        <v>58</v>
+      <c r="AU108" s="13">
+        <v>3449664</v>
       </c>
       <c r="AV108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW108" s="13">
-        <v>3449664</v>
+      <c r="AW108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX108" s="13" t="s">
         <v>58</v>
@@ -14611,74 +14611,74 @@
       <c r="X109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z109" s="11" t="s">
-        <v>58</v>
+      <c r="Y109" s="11">
+        <v>2294797</v>
+      </c>
+      <c r="Z109" s="11">
+        <v>2432787</v>
       </c>
       <c r="AA109" s="11">
-        <v>2294797</v>
+        <v>2478239</v>
       </c>
       <c r="AB109" s="11">
-        <v>2432787</v>
+        <v>2549567</v>
       </c>
       <c r="AC109" s="11">
-        <v>2478239</v>
+        <v>2646964</v>
       </c>
       <c r="AD109" s="11">
-        <v>2549567</v>
+        <v>2569394</v>
       </c>
       <c r="AE109" s="11">
-        <v>2646964</v>
+        <v>2574327</v>
       </c>
       <c r="AF109" s="11">
-        <v>2569394</v>
+        <v>2725205</v>
       </c>
       <c r="AG109" s="11">
-        <v>2574327</v>
+        <v>2699486</v>
       </c>
       <c r="AH109" s="11">
-        <v>2725205</v>
+        <v>2843764</v>
       </c>
       <c r="AI109" s="11">
-        <v>2699486</v>
+        <v>3744358</v>
       </c>
       <c r="AJ109" s="11">
-        <v>2843764</v>
+        <v>3831716</v>
       </c>
       <c r="AK109" s="11">
-        <v>3744358</v>
+        <v>4735872</v>
       </c>
       <c r="AL109" s="11">
-        <v>3831716</v>
+        <v>5763276</v>
       </c>
       <c r="AM109" s="11">
-        <v>4735872</v>
+        <v>5864580</v>
       </c>
       <c r="AN109" s="11">
-        <v>5763276</v>
+        <v>4596331</v>
       </c>
       <c r="AO109" s="11">
-        <v>5864580</v>
-      </c>
-      <c r="AP109" s="11">
-        <v>4596331</v>
+        <v>4395661</v>
+      </c>
+      <c r="AP109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ109" s="11">
-        <v>4395661</v>
-      </c>
-      <c r="AR109" s="11" t="s">
-        <v>58</v>
+        <v>4193566</v>
+      </c>
+      <c r="AR109" s="11">
+        <v>4669373</v>
       </c>
       <c r="AS109" s="11">
-        <v>4193566</v>
-      </c>
-      <c r="AT109" s="11">
-        <v>4669373</v>
-      </c>
-      <c r="AU109" s="11">
         <v>4950688</v>
+      </c>
+      <c r="AT109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV109" s="11" t="s">
         <v>58</v>
@@ -14833,32 +14833,32 @@
       <c r="AS110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU110" s="13" t="s">
-        <v>58</v>
+      <c r="AT110" s="13">
+        <v>4796159</v>
+      </c>
+      <c r="AU110" s="13">
+        <v>5002188</v>
       </c>
       <c r="AV110" s="13">
-        <v>4796159</v>
+        <v>6015674</v>
       </c>
       <c r="AW110" s="13">
-        <v>5002188</v>
+        <v>5466304</v>
       </c>
       <c r="AX110" s="13">
-        <v>6015674</v>
+        <v>5324317</v>
       </c>
       <c r="AY110" s="13">
-        <v>5466304</v>
+        <v>5209260</v>
       </c>
       <c r="AZ110" s="13">
-        <v>5324317</v>
+        <v>5217450</v>
       </c>
       <c r="BA110" s="13">
-        <v>5209260</v>
+        <v>5213992</v>
       </c>
       <c r="BB110" s="13">
-        <v>5217450</v>
+        <v>5198331</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -14992,32 +14992,32 @@
       <c r="AS111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU111" s="11" t="s">
-        <v>58</v>
+      <c r="AT111" s="11">
+        <v>5518060</v>
+      </c>
+      <c r="AU111" s="11">
+        <v>5717854</v>
       </c>
       <c r="AV111" s="11">
-        <v>5518060</v>
+        <v>6926508</v>
       </c>
       <c r="AW111" s="11">
-        <v>5717854</v>
+        <v>7111271</v>
       </c>
       <c r="AX111" s="11">
-        <v>6926508</v>
+        <v>6909877</v>
       </c>
       <c r="AY111" s="11">
-        <v>7111271</v>
+        <v>6928511</v>
       </c>
       <c r="AZ111" s="11">
-        <v>6909877</v>
+        <v>6863141</v>
       </c>
       <c r="BA111" s="11">
-        <v>6928511</v>
+        <v>6807295</v>
       </c>
       <c r="BB111" s="11">
-        <v>6863141</v>
+        <v>6436350</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15151,23 +15151,23 @@
       <c r="AS112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU112" s="13" t="s">
-        <v>58</v>
+      <c r="AT112" s="13">
+        <v>3458333</v>
+      </c>
+      <c r="AU112" s="13">
+        <v>3448071</v>
       </c>
       <c r="AV112" s="13">
-        <v>3458333</v>
+        <v>3450440</v>
       </c>
       <c r="AW112" s="13">
-        <v>3448071</v>
-      </c>
-      <c r="AX112" s="13">
-        <v>3450440</v>
-      </c>
-      <c r="AY112" s="13">
         <v>3438889</v>
+      </c>
+      <c r="AX112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ112" s="13" t="s">
         <v>58</v>
@@ -15310,32 +15310,32 @@
       <c r="AS113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT113" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU113" s="11" t="s">
-        <v>58</v>
+      <c r="AT113" s="11">
+        <v>4563061</v>
+      </c>
+      <c r="AU113" s="11">
+        <v>4880716</v>
       </c>
       <c r="AV113" s="11">
-        <v>4563061</v>
+        <v>5302171</v>
       </c>
       <c r="AW113" s="11">
-        <v>4880716</v>
+        <v>5515459</v>
       </c>
       <c r="AX113" s="11">
-        <v>5302171</v>
+        <v>5490940</v>
       </c>
       <c r="AY113" s="11">
-        <v>5515459</v>
+        <v>5422120</v>
       </c>
       <c r="AZ113" s="11">
-        <v>5490940</v>
+        <v>5192441</v>
       </c>
       <c r="BA113" s="11">
-        <v>5422120</v>
+        <v>5042504</v>
       </c>
       <c r="BB113" s="11">
-        <v>5192441</v>
+        <v>5001081</v>
       </c>
     </row>
     <row r="114" spans="2:54" x14ac:dyDescent="0.3">
@@ -15469,32 +15469,32 @@
       <c r="AS114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU114" s="13" t="s">
-        <v>58</v>
+      <c r="AT114" s="13">
+        <v>5588592</v>
+      </c>
+      <c r="AU114" s="13">
+        <v>5610499</v>
       </c>
       <c r="AV114" s="13">
-        <v>5588592</v>
+        <v>6267601</v>
       </c>
       <c r="AW114" s="13">
-        <v>5610499</v>
+        <v>7335159</v>
       </c>
       <c r="AX114" s="13">
-        <v>6267601</v>
+        <v>7297852</v>
       </c>
       <c r="AY114" s="13">
-        <v>7335159</v>
+        <v>6835305</v>
       </c>
       <c r="AZ114" s="13">
-        <v>7297852</v>
+        <v>6484983</v>
       </c>
       <c r="BA114" s="13">
-        <v>6835305</v>
+        <v>6139074</v>
       </c>
       <c r="BB114" s="13">
-        <v>6484983</v>
+        <v>5999840</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15628,32 +15628,32 @@
       <c r="AS115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU115" s="11" t="s">
-        <v>58</v>
+      <c r="AT115" s="11">
+        <v>4974664</v>
+      </c>
+      <c r="AU115" s="11">
+        <v>5067117</v>
       </c>
       <c r="AV115" s="11">
-        <v>4974664</v>
+        <v>6307803</v>
       </c>
       <c r="AW115" s="11">
-        <v>5067117</v>
+        <v>6782315</v>
       </c>
       <c r="AX115" s="11">
-        <v>6307803</v>
+        <v>6475533</v>
       </c>
       <c r="AY115" s="11">
-        <v>6782315</v>
+        <v>6303392</v>
       </c>
       <c r="AZ115" s="11">
-        <v>6475533</v>
+        <v>5867495</v>
       </c>
       <c r="BA115" s="11">
-        <v>6303392</v>
+        <v>5771709</v>
       </c>
       <c r="BB115" s="11">
-        <v>5867495</v>
+        <v>5819691</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -15787,20 +15787,20 @@
       <c r="AS116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU116" s="13" t="s">
-        <v>58</v>
+      <c r="AT116" s="13">
+        <v>4982977</v>
+      </c>
+      <c r="AU116" s="13">
+        <v>5396092</v>
       </c>
       <c r="AV116" s="13">
-        <v>4982977</v>
-      </c>
-      <c r="AW116" s="13">
-        <v>5396092</v>
-      </c>
-      <c r="AX116" s="13">
         <v>4741935</v>
+      </c>
+      <c r="AW116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY116" s="13" t="s">
         <v>58</v>
@@ -16003,32 +16003,32 @@
       <c r="AS118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU118" s="11" t="s">
-        <v>58</v>
+      <c r="AT118" s="11">
+        <v>6713356</v>
+      </c>
+      <c r="AU118" s="11">
+        <v>6785291</v>
       </c>
       <c r="AV118" s="11">
-        <v>6713356</v>
+        <v>7738839</v>
       </c>
       <c r="AW118" s="11">
-        <v>6785291</v>
+        <v>8174603</v>
       </c>
       <c r="AX118" s="11">
-        <v>7738839</v>
+        <v>7912657</v>
       </c>
       <c r="AY118" s="11">
-        <v>8174603</v>
+        <v>5440497</v>
       </c>
       <c r="AZ118" s="11">
-        <v>7912657</v>
+        <v>4444767</v>
       </c>
       <c r="BA118" s="11">
-        <v>5440497</v>
+        <v>4168642</v>
       </c>
       <c r="BB118" s="11">
-        <v>4444767</v>
+        <v>3604323</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16099,74 +16099,74 @@
       <c r="X119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="13" t="s">
-        <v>58</v>
+      <c r="Y119" s="13">
+        <v>1391304</v>
       </c>
       <c r="Z119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA119" s="13">
-        <v>1391304</v>
+      <c r="AA119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE119" s="13">
+      <c r="AC119" s="13">
         <v>3674020</v>
       </c>
+      <c r="AD119" s="13">
+        <v>2995512</v>
+      </c>
+      <c r="AE119" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF119" s="13">
-        <v>2995512</v>
-      </c>
-      <c r="AG119" s="13" t="s">
-        <v>58</v>
+        <v>2407895</v>
+      </c>
+      <c r="AG119" s="13">
+        <v>3507014</v>
       </c>
       <c r="AH119" s="13">
-        <v>2407895</v>
+        <v>4146361</v>
       </c>
       <c r="AI119" s="13">
-        <v>3507014</v>
+        <v>4389761</v>
       </c>
       <c r="AJ119" s="13">
-        <v>4146361</v>
+        <v>5168246</v>
       </c>
       <c r="AK119" s="13">
-        <v>4389761</v>
+        <v>5451807</v>
       </c>
       <c r="AL119" s="13">
-        <v>5168246</v>
+        <v>6544528</v>
       </c>
       <c r="AM119" s="13">
-        <v>5451807</v>
+        <v>7080000</v>
       </c>
       <c r="AN119" s="13">
-        <v>6544528</v>
+        <v>6595025</v>
       </c>
       <c r="AO119" s="13">
-        <v>7080000</v>
-      </c>
-      <c r="AP119" s="13">
-        <v>6595025</v>
+        <v>6088126</v>
+      </c>
+      <c r="AP119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ119" s="13">
-        <v>6088126</v>
-      </c>
-      <c r="AR119" s="13" t="s">
-        <v>58</v>
+        <v>6480000</v>
+      </c>
+      <c r="AR119" s="13">
+        <v>5916691</v>
       </c>
       <c r="AS119" s="13">
-        <v>6480000</v>
-      </c>
-      <c r="AT119" s="13">
-        <v>5916691</v>
-      </c>
-      <c r="AU119" s="13">
         <v>6021669</v>
+      </c>
+      <c r="AT119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV119" s="13" t="s">
         <v>58</v>
@@ -16258,74 +16258,74 @@
       <c r="X120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z120" s="11" t="s">
-        <v>58</v>
+      <c r="Y120" s="11">
+        <v>2602742</v>
+      </c>
+      <c r="Z120" s="11">
+        <v>2535381</v>
       </c>
       <c r="AA120" s="11">
-        <v>2602742</v>
+        <v>2872843</v>
       </c>
       <c r="AB120" s="11">
-        <v>2535381</v>
+        <v>3327801</v>
       </c>
       <c r="AC120" s="11">
-        <v>2872843</v>
+        <v>4089409</v>
       </c>
       <c r="AD120" s="11">
-        <v>3327801</v>
+        <v>3424573</v>
       </c>
       <c r="AE120" s="11">
-        <v>4089409</v>
+        <v>3407518</v>
       </c>
       <c r="AF120" s="11">
-        <v>3424573</v>
+        <v>3337969</v>
       </c>
       <c r="AG120" s="11">
-        <v>3407518</v>
+        <v>3072822</v>
       </c>
       <c r="AH120" s="11">
-        <v>3337969</v>
+        <v>4817654</v>
       </c>
       <c r="AI120" s="11">
-        <v>3072822</v>
+        <v>3418177</v>
       </c>
       <c r="AJ120" s="11">
-        <v>4817654</v>
+        <v>4057511</v>
       </c>
       <c r="AK120" s="11">
-        <v>3418177</v>
+        <v>5715968</v>
       </c>
       <c r="AL120" s="11">
-        <v>4057511</v>
+        <v>7033281</v>
       </c>
       <c r="AM120" s="11">
-        <v>5715968</v>
+        <v>7640982</v>
       </c>
       <c r="AN120" s="11">
-        <v>7033281</v>
+        <v>7775423</v>
       </c>
       <c r="AO120" s="11">
-        <v>7640982</v>
-      </c>
-      <c r="AP120" s="11">
-        <v>7775423</v>
+        <v>7133019</v>
+      </c>
+      <c r="AP120" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ120" s="11">
-        <v>7133019</v>
-      </c>
-      <c r="AR120" s="11" t="s">
-        <v>58</v>
+        <v>9472554</v>
+      </c>
+      <c r="AR120" s="11">
+        <v>8599379</v>
       </c>
       <c r="AS120" s="11">
-        <v>9472554</v>
-      </c>
-      <c r="AT120" s="11">
-        <v>8599379</v>
-      </c>
-      <c r="AU120" s="11">
         <v>8324906</v>
+      </c>
+      <c r="AT120" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU120" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV120" s="11" t="s">
         <v>58</v>
@@ -16480,32 +16480,32 @@
       <c r="AS121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU121" s="13" t="s">
-        <v>58</v>
+      <c r="AT121" s="13">
+        <v>6706089</v>
+      </c>
+      <c r="AU121" s="13">
+        <v>6187321</v>
       </c>
       <c r="AV121" s="13">
-        <v>6706089</v>
+        <v>5707709</v>
       </c>
       <c r="AW121" s="13">
-        <v>6187321</v>
+        <v>5590864</v>
       </c>
       <c r="AX121" s="13">
-        <v>5707709</v>
+        <v>5981283</v>
       </c>
       <c r="AY121" s="13">
-        <v>5590864</v>
+        <v>6007220</v>
       </c>
       <c r="AZ121" s="13">
-        <v>5981283</v>
+        <v>6095238</v>
       </c>
       <c r="BA121" s="13">
-        <v>6007220</v>
+        <v>6208685</v>
       </c>
       <c r="BB121" s="13">
-        <v>6095238</v>
+        <v>6901176</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -16639,32 +16639,32 @@
       <c r="AS122" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU122" s="11" t="s">
-        <v>58</v>
+      <c r="AT122" s="11">
+        <v>9211225</v>
+      </c>
+      <c r="AU122" s="11">
+        <v>9597631</v>
       </c>
       <c r="AV122" s="11">
-        <v>9211225</v>
+        <v>9921152</v>
       </c>
       <c r="AW122" s="11">
-        <v>9597631</v>
+        <v>10642367</v>
       </c>
       <c r="AX122" s="11">
-        <v>9921152</v>
+        <v>10337140</v>
       </c>
       <c r="AY122" s="11">
-        <v>10642367</v>
+        <v>7625644</v>
       </c>
       <c r="AZ122" s="11">
-        <v>10337140</v>
+        <v>7668361</v>
       </c>
       <c r="BA122" s="11">
-        <v>7625644</v>
+        <v>7661684</v>
       </c>
       <c r="BB122" s="11">
-        <v>7668361</v>
+        <v>7745237</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/saroum/product/monthly_seprated.xlsx
+++ b/database/industries/siman/saroum/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\saroum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\saroum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA76DDF2-E39F-4EED-AC0E-C5A30A29C300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2767E-60F5-4B2E-8129-8630C8E5722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="98">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساروم-سیمان‌ارومیه‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -792,16 +792,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB122"/>
+  <dimension ref="B1:BB123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -856,7 +856,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1194,7 +1194,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1406,7 +1406,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1588,41 +1588,41 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>177369</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>171230</v>
       </c>
       <c r="AT11" s="11">
-        <v>177369</v>
+        <v>157007</v>
       </c>
       <c r="AU11" s="11">
-        <v>171230</v>
+        <v>84889</v>
       </c>
       <c r="AV11" s="11">
-        <v>157007</v>
+        <v>50792</v>
       </c>
       <c r="AW11" s="11">
-        <v>84889</v>
+        <v>123977</v>
       </c>
       <c r="AX11" s="11">
-        <v>50792</v>
+        <v>164944</v>
       </c>
       <c r="AY11" s="11">
-        <v>123977</v>
+        <v>117745</v>
       </c>
       <c r="AZ11" s="11">
-        <v>164944</v>
+        <v>166612</v>
       </c>
       <c r="BA11" s="11">
-        <v>117745</v>
+        <v>139508</v>
       </c>
       <c r="BB11" s="11">
-        <v>166612</v>
+        <v>85166</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1747,23 +1747,23 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>1007</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
+        <v>4627</v>
       </c>
       <c r="AU12" s="13">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AV12" s="13">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="13">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1909,20 +1909,20 @@
       <c r="AR13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT13" s="11" t="s">
-        <v>58</v>
+      <c r="AS13" s="11">
+        <v>128</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>883</v>
       </c>
       <c r="AU13" s="11">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="AV13" s="11">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="11">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2002,75 +2002,75 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>195601</v>
+      </c>
+      <c r="X14" s="13">
+        <v>193773</v>
       </c>
       <c r="Y14" s="13">
-        <v>195601</v>
+        <v>148809</v>
       </c>
       <c r="Z14" s="13">
-        <v>193773</v>
+        <v>146814</v>
       </c>
       <c r="AA14" s="13">
-        <v>148809</v>
+        <v>169675</v>
       </c>
       <c r="AB14" s="13">
-        <v>146814</v>
+        <v>90887</v>
       </c>
       <c r="AC14" s="13">
-        <v>169675</v>
+        <v>49019</v>
       </c>
       <c r="AD14" s="13">
-        <v>90887</v>
+        <v>102391</v>
       </c>
       <c r="AE14" s="13">
-        <v>49019</v>
+        <v>115014</v>
       </c>
       <c r="AF14" s="13">
-        <v>102391</v>
+        <v>144227</v>
       </c>
       <c r="AG14" s="13">
-        <v>115014</v>
+        <v>170739</v>
       </c>
       <c r="AH14" s="13">
-        <v>144227</v>
+        <v>162686</v>
       </c>
       <c r="AI14" s="13">
-        <v>170739</v>
+        <v>159511</v>
       </c>
       <c r="AJ14" s="13">
-        <v>162686</v>
+        <v>133373</v>
       </c>
       <c r="AK14" s="13">
-        <v>159511</v>
+        <v>168429</v>
       </c>
       <c r="AL14" s="13">
-        <v>133373</v>
+        <v>159450</v>
       </c>
       <c r="AM14" s="13">
-        <v>168429</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>159450</v>
+        <v>133042</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO14" s="13">
-        <v>133042</v>
-      </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
+        <v>14108</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>40261</v>
       </c>
       <c r="AQ14" s="13">
-        <v>14108</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>40261</v>
-      </c>
-      <c r="AS14" s="13">
         <v>141110</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2161,75 +2161,75 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>102013</v>
+      </c>
+      <c r="X15" s="11">
+        <v>120681</v>
       </c>
       <c r="Y15" s="11">
-        <v>102013</v>
+        <v>133927</v>
       </c>
       <c r="Z15" s="11">
-        <v>120681</v>
+        <v>161699</v>
       </c>
       <c r="AA15" s="11">
-        <v>133927</v>
+        <v>173974</v>
       </c>
       <c r="AB15" s="11">
-        <v>161699</v>
+        <v>124332</v>
       </c>
       <c r="AC15" s="11">
-        <v>173974</v>
+        <v>121700</v>
       </c>
       <c r="AD15" s="11">
-        <v>124332</v>
+        <v>99071</v>
       </c>
       <c r="AE15" s="11">
-        <v>121700</v>
+        <v>184574</v>
       </c>
       <c r="AF15" s="11">
-        <v>99071</v>
+        <v>181446</v>
       </c>
       <c r="AG15" s="11">
-        <v>184574</v>
+        <v>143437</v>
       </c>
       <c r="AH15" s="11">
-        <v>181446</v>
+        <v>123720</v>
       </c>
       <c r="AI15" s="11">
-        <v>143437</v>
+        <v>123775</v>
       </c>
       <c r="AJ15" s="11">
-        <v>123720</v>
+        <v>188126</v>
       </c>
       <c r="AK15" s="11">
-        <v>123775</v>
+        <v>121643</v>
       </c>
       <c r="AL15" s="11">
-        <v>188126</v>
+        <v>172918</v>
       </c>
       <c r="AM15" s="11">
-        <v>121643</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>172918</v>
+        <v>145867</v>
+      </c>
+      <c r="AN15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO15" s="11">
-        <v>145867</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
+        <v>93514</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>72101</v>
       </c>
       <c r="AQ15" s="11">
-        <v>93514</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>72101</v>
-      </c>
-      <c r="AS15" s="11">
         <v>78311</v>
       </c>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2383,41 +2383,41 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>27126</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>4516</v>
       </c>
       <c r="AT16" s="13">
-        <v>27126</v>
+        <v>30995</v>
       </c>
       <c r="AU16" s="13">
-        <v>4516</v>
+        <v>78629</v>
       </c>
       <c r="AV16" s="13">
-        <v>30995</v>
+        <v>40687</v>
       </c>
       <c r="AW16" s="13">
-        <v>78629</v>
+        <v>72536</v>
       </c>
       <c r="AX16" s="13">
-        <v>40687</v>
+        <v>61385</v>
       </c>
       <c r="AY16" s="13">
-        <v>72536</v>
+        <v>46393</v>
       </c>
       <c r="AZ16" s="13">
-        <v>61385</v>
+        <v>38218</v>
       </c>
       <c r="BA16" s="13">
-        <v>46393</v>
+        <v>24248</v>
       </c>
       <c r="BB16" s="13">
-        <v>38218</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2542,41 +2542,41 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>51135</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>32391</v>
       </c>
       <c r="AT17" s="11">
-        <v>51135</v>
+        <v>49815</v>
       </c>
       <c r="AU17" s="11">
-        <v>32391</v>
+        <v>53491</v>
       </c>
       <c r="AV17" s="11">
-        <v>49815</v>
+        <v>49499</v>
       </c>
       <c r="AW17" s="11">
-        <v>53491</v>
+        <v>65199</v>
       </c>
       <c r="AX17" s="11">
-        <v>49499</v>
+        <v>50658</v>
       </c>
       <c r="AY17" s="11">
-        <v>65199</v>
+        <v>45152</v>
       </c>
       <c r="AZ17" s="11">
-        <v>50658</v>
+        <v>31296</v>
       </c>
       <c r="BA17" s="11">
-        <v>45152</v>
+        <v>16769</v>
       </c>
       <c r="BB17" s="11">
-        <v>31296</v>
+        <v>15000</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2701,23 +2701,23 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>1011</v>
       </c>
       <c r="AT18" s="13">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="AU18" s="13">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AV18" s="13">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="13">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2860,41 +2860,41 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>33062</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>30286</v>
       </c>
       <c r="AT19" s="11">
-        <v>33062</v>
+        <v>41291</v>
       </c>
       <c r="AU19" s="11">
-        <v>30286</v>
+        <v>9926</v>
       </c>
       <c r="AV19" s="11">
-        <v>41291</v>
+        <v>9670</v>
       </c>
       <c r="AW19" s="11">
-        <v>9926</v>
+        <v>2836</v>
       </c>
       <c r="AX19" s="11">
-        <v>9670</v>
+        <v>12622</v>
       </c>
       <c r="AY19" s="11">
-        <v>2836</v>
+        <v>21035</v>
       </c>
       <c r="AZ19" s="11">
-        <v>12622</v>
+        <v>24850</v>
       </c>
       <c r="BA19" s="11">
-        <v>21035</v>
+        <v>14841</v>
       </c>
       <c r="BB19" s="11">
-        <v>24850</v>
+        <v>9801</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -3019,41 +3019,41 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>23230</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>43566</v>
       </c>
       <c r="AT20" s="13">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AU20" s="13">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AV20" s="13">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AW20" s="13">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AX20" s="13">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="AY20" s="13">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="AZ20" s="13">
-        <v>5194</v>
+        <v>6259</v>
       </c>
       <c r="BA20" s="13">
-        <v>8722</v>
+        <v>5389</v>
       </c>
       <c r="BB20" s="13">
-        <v>6259</v>
+        <v>6243</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3178,41 +3178,41 @@
       <c r="AQ21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AR21" s="11">
+        <v>24302</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>6842</v>
       </c>
       <c r="AT21" s="11">
-        <v>24302</v>
+        <v>6493</v>
       </c>
       <c r="AU21" s="11">
-        <v>6842</v>
+        <v>4962</v>
       </c>
       <c r="AV21" s="11">
-        <v>6493</v>
+        <v>3811</v>
       </c>
       <c r="AW21" s="11">
-        <v>4962</v>
+        <v>9312</v>
       </c>
       <c r="AX21" s="11">
-        <v>3811</v>
+        <v>10988</v>
       </c>
       <c r="AY21" s="11">
-        <v>9312</v>
+        <v>11569</v>
       </c>
       <c r="AZ21" s="11">
-        <v>10988</v>
+        <v>3546</v>
       </c>
       <c r="BA21" s="11">
-        <v>11569</v>
+        <v>3537</v>
       </c>
       <c r="BB21" s="11">
-        <v>3546</v>
+        <v>2556</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3337,14 +3337,14 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="13" t="s">
-        <v>58</v>
+      <c r="AR22" s="13">
+        <v>3041</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>0</v>
       </c>
       <c r="AT22" s="13">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="13">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3496,11 +3496,11 @@
       <c r="AQ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
+      <c r="AR23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>0</v>
       </c>
       <c r="AT23" s="11">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
@@ -3591,103 +3591,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="15">
-        <v>0</v>
+        <v>297614</v>
       </c>
       <c r="X24" s="15">
-        <v>0</v>
+        <v>314454</v>
       </c>
       <c r="Y24" s="15">
-        <v>297614</v>
+        <v>282736</v>
       </c>
       <c r="Z24" s="15">
-        <v>314454</v>
+        <v>308513</v>
       </c>
       <c r="AA24" s="15">
-        <v>282736</v>
+        <v>343649</v>
       </c>
       <c r="AB24" s="15">
-        <v>308513</v>
+        <v>215219</v>
       </c>
       <c r="AC24" s="15">
-        <v>343649</v>
+        <v>170719</v>
       </c>
       <c r="AD24" s="15">
-        <v>215219</v>
+        <v>201462</v>
       </c>
       <c r="AE24" s="15">
-        <v>170719</v>
+        <v>299588</v>
       </c>
       <c r="AF24" s="15">
-        <v>201462</v>
+        <v>325673</v>
       </c>
       <c r="AG24" s="15">
-        <v>299588</v>
+        <v>314176</v>
       </c>
       <c r="AH24" s="15">
-        <v>325673</v>
+        <v>286406</v>
       </c>
       <c r="AI24" s="15">
-        <v>314176</v>
+        <v>283286</v>
       </c>
       <c r="AJ24" s="15">
-        <v>286406</v>
+        <v>321499</v>
       </c>
       <c r="AK24" s="15">
-        <v>283286</v>
+        <v>290072</v>
       </c>
       <c r="AL24" s="15">
-        <v>321499</v>
+        <v>332368</v>
       </c>
       <c r="AM24" s="15">
-        <v>290072</v>
+        <v>278909</v>
       </c>
       <c r="AN24" s="15">
-        <v>332368</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="15">
-        <v>278909</v>
+        <v>107622</v>
       </c>
       <c r="AP24" s="15">
-        <v>0</v>
+        <v>112362</v>
       </c>
       <c r="AQ24" s="15">
-        <v>107622</v>
+        <v>219421</v>
       </c>
       <c r="AR24" s="15">
-        <v>112362</v>
+        <v>339265</v>
       </c>
       <c r="AS24" s="15">
-        <v>219421</v>
+        <v>290977</v>
       </c>
       <c r="AT24" s="15">
-        <v>339265</v>
+        <v>332378</v>
       </c>
       <c r="AU24" s="15">
-        <v>290977</v>
+        <v>240815</v>
       </c>
       <c r="AV24" s="15">
-        <v>332378</v>
+        <v>158602</v>
       </c>
       <c r="AW24" s="15">
-        <v>240815</v>
+        <v>278341</v>
       </c>
       <c r="AX24" s="15">
-        <v>158602</v>
+        <v>305791</v>
       </c>
       <c r="AY24" s="15">
-        <v>278341</v>
+        <v>250616</v>
       </c>
       <c r="AZ24" s="15">
-        <v>305791</v>
+        <v>270781</v>
       </c>
       <c r="BA24" s="15">
-        <v>250616</v>
+        <v>204292</v>
       </c>
       <c r="BB24" s="15">
-        <v>270781</v>
+        <v>118766</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>72</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
@@ -3869,41 +3869,41 @@
       <c r="AQ26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>58</v>
+      <c r="AR26" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>3209</v>
       </c>
       <c r="AT26" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AU26" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AV26" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AW26" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AX26" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="AY26" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="AZ26" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
       <c r="BA26" s="11">
-        <v>12067</v>
+        <v>44112</v>
       </c>
       <c r="BB26" s="11">
-        <v>20173</v>
+        <v>29674</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>73</v>
       </c>
@@ -3965,75 +3965,75 @@
       <c r="V27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>58</v>
+      <c r="W27" s="13">
+        <v>23</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0</v>
       </c>
       <c r="Y27" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="13">
         <v>0</v>
       </c>
       <c r="AA27" s="13">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AB27" s="13">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AC27" s="13">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="13">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AE27" s="13">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AF27" s="13">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AG27" s="13">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AH27" s="13">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AI27" s="13">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AJ27" s="13">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AK27" s="13">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AL27" s="13">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AM27" s="13">
-        <v>6875</v>
-      </c>
-      <c r="AN27" s="13">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AN27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO27" s="13">
-        <v>3756</v>
-      </c>
-      <c r="AP27" s="13" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="AP27" s="13">
+        <v>3362</v>
       </c>
       <c r="AQ27" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR27" s="13">
-        <v>3362</v>
-      </c>
-      <c r="AS27" s="13">
         <v>13890</v>
       </c>
+      <c r="AR27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS27" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT27" s="13" t="s">
         <v>58</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>74</v>
       </c>
@@ -4124,75 +4124,75 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>12327</v>
+      </c>
+      <c r="X28" s="11">
+        <v>12761</v>
       </c>
       <c r="Y28" s="11">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="Z28" s="11">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA28" s="11">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AB28" s="11">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AC28" s="11">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AD28" s="11">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AE28" s="11">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AF28" s="11">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AG28" s="11">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AH28" s="11">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AI28" s="11">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AJ28" s="11">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AK28" s="11">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AL28" s="11">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AM28" s="11">
-        <v>7618</v>
-      </c>
-      <c r="AN28" s="11">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO28" s="11">
-        <v>2759</v>
-      </c>
-      <c r="AP28" s="11" t="s">
-        <v>58</v>
+        <v>419</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>322</v>
       </c>
       <c r="AQ28" s="11">
-        <v>419</v>
-      </c>
-      <c r="AR28" s="11">
-        <v>322</v>
-      </c>
-      <c r="AS28" s="11">
         <v>1859</v>
       </c>
+      <c r="AR28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT28" s="11" t="s">
         <v>58</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>63</v>
       </c>
@@ -4346,41 +4346,41 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13">
+        <v>1708</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>2098</v>
       </c>
       <c r="AT29" s="13">
-        <v>1708</v>
+        <v>2802</v>
       </c>
       <c r="AU29" s="13">
-        <v>2098</v>
+        <v>2014</v>
       </c>
       <c r="AV29" s="13">
-        <v>2802</v>
+        <v>2244</v>
       </c>
       <c r="AW29" s="13">
-        <v>2014</v>
+        <v>277</v>
       </c>
       <c r="AX29" s="13">
-        <v>2244</v>
+        <v>420</v>
       </c>
       <c r="AY29" s="13">
-        <v>277</v>
+        <v>829</v>
       </c>
       <c r="AZ29" s="13">
-        <v>420</v>
+        <v>1275</v>
       </c>
       <c r="BA29" s="13">
-        <v>829</v>
+        <v>1187</v>
       </c>
       <c r="BB29" s="13">
-        <v>1275</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>64</v>
       </c>
@@ -4505,41 +4505,41 @@
       <c r="AQ30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>58</v>
+      <c r="AR30" s="11">
+        <v>1657</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>2448</v>
       </c>
       <c r="AT30" s="11">
-        <v>1657</v>
+        <v>2638</v>
       </c>
       <c r="AU30" s="11">
-        <v>2448</v>
+        <v>1893</v>
       </c>
       <c r="AV30" s="11">
-        <v>2638</v>
+        <v>2364</v>
       </c>
       <c r="AW30" s="11">
-        <v>1893</v>
+        <v>1942</v>
       </c>
       <c r="AX30" s="11">
-        <v>2364</v>
+        <v>2557</v>
       </c>
       <c r="AY30" s="11">
-        <v>1942</v>
+        <v>4549</v>
       </c>
       <c r="AZ30" s="11">
-        <v>2557</v>
+        <v>2257</v>
       </c>
       <c r="BA30" s="11">
-        <v>4549</v>
+        <v>1909</v>
       </c>
       <c r="BB30" s="11">
-        <v>2257</v>
+        <v>1834</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>75</v>
       </c>
@@ -4600,103 +4600,103 @@
         <v>0</v>
       </c>
       <c r="W31" s="15">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="X31" s="15">
-        <v>0</v>
+        <v>12761</v>
       </c>
       <c r="Y31" s="15">
-        <v>12350</v>
+        <v>12866</v>
       </c>
       <c r="Z31" s="15">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA31" s="15">
-        <v>12866</v>
+        <v>3741</v>
       </c>
       <c r="AB31" s="15">
-        <v>4097</v>
+        <v>8366</v>
       </c>
       <c r="AC31" s="15">
-        <v>3741</v>
+        <v>2341</v>
       </c>
       <c r="AD31" s="15">
-        <v>8366</v>
+        <v>8130</v>
       </c>
       <c r="AE31" s="15">
-        <v>2341</v>
+        <v>3369</v>
       </c>
       <c r="AF31" s="15">
-        <v>8130</v>
+        <v>14173</v>
       </c>
       <c r="AG31" s="15">
-        <v>3369</v>
+        <v>11674</v>
       </c>
       <c r="AH31" s="15">
-        <v>14173</v>
+        <v>10986</v>
       </c>
       <c r="AI31" s="15">
-        <v>11674</v>
+        <v>9524</v>
       </c>
       <c r="AJ31" s="15">
-        <v>10986</v>
+        <v>8050</v>
       </c>
       <c r="AK31" s="15">
-        <v>9524</v>
+        <v>14493</v>
       </c>
       <c r="AL31" s="15">
-        <v>8050</v>
+        <v>4732</v>
       </c>
       <c r="AM31" s="15">
-        <v>14493</v>
+        <v>6515</v>
       </c>
       <c r="AN31" s="15">
-        <v>4732</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="15">
-        <v>6515</v>
+        <v>444</v>
       </c>
       <c r="AP31" s="15">
-        <v>0</v>
+        <v>3684</v>
       </c>
       <c r="AQ31" s="15">
-        <v>444</v>
+        <v>15749</v>
       </c>
       <c r="AR31" s="15">
-        <v>3684</v>
+        <v>17194</v>
       </c>
       <c r="AS31" s="15">
-        <v>15749</v>
+        <v>7755</v>
       </c>
       <c r="AT31" s="15">
-        <v>17194</v>
+        <v>8419</v>
       </c>
       <c r="AU31" s="15">
-        <v>7755</v>
+        <v>4411</v>
       </c>
       <c r="AV31" s="15">
-        <v>8419</v>
+        <v>11134</v>
       </c>
       <c r="AW31" s="15">
-        <v>4411</v>
+        <v>5597</v>
       </c>
       <c r="AX31" s="15">
-        <v>11134</v>
+        <v>4353</v>
       </c>
       <c r="AY31" s="15">
-        <v>5597</v>
+        <v>17445</v>
       </c>
       <c r="AZ31" s="15">
-        <v>4353</v>
+        <v>23705</v>
       </c>
       <c r="BA31" s="15">
-        <v>17445</v>
+        <v>47208</v>
       </c>
       <c r="BB31" s="15">
-        <v>23705</v>
+        <v>31676</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>76</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="BA32" s="17"/>
       <c r="BB32" s="17"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>77</v>
       </c>
@@ -4813,11 +4813,11 @@
       <c r="V33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="19" t="s">
-        <v>58</v>
+      <c r="W33" s="19">
+        <v>0</v>
+      </c>
+      <c r="X33" s="19">
+        <v>0</v>
       </c>
       <c r="Y33" s="19">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>78</v>
       </c>
@@ -4971,103 +4971,103 @@
         <v>0</v>
       </c>
       <c r="W34" s="15">
-        <v>0</v>
+        <v>309964</v>
       </c>
       <c r="X34" s="15">
-        <v>0</v>
+        <v>327215</v>
       </c>
       <c r="Y34" s="15">
-        <v>309964</v>
+        <v>295602</v>
       </c>
       <c r="Z34" s="15">
-        <v>327215</v>
+        <v>312610</v>
       </c>
       <c r="AA34" s="15">
-        <v>295602</v>
+        <v>347390</v>
       </c>
       <c r="AB34" s="15">
-        <v>312610</v>
+        <v>223585</v>
       </c>
       <c r="AC34" s="15">
-        <v>347390</v>
+        <v>173060</v>
       </c>
       <c r="AD34" s="15">
-        <v>223585</v>
+        <v>209592</v>
       </c>
       <c r="AE34" s="15">
-        <v>173060</v>
+        <v>302957</v>
       </c>
       <c r="AF34" s="15">
-        <v>209592</v>
+        <v>339846</v>
       </c>
       <c r="AG34" s="15">
-        <v>302957</v>
+        <v>325850</v>
       </c>
       <c r="AH34" s="15">
-        <v>339846</v>
+        <v>297392</v>
       </c>
       <c r="AI34" s="15">
-        <v>325850</v>
+        <v>292810</v>
       </c>
       <c r="AJ34" s="15">
-        <v>297392</v>
+        <v>329549</v>
       </c>
       <c r="AK34" s="15">
-        <v>292810</v>
+        <v>304565</v>
       </c>
       <c r="AL34" s="15">
-        <v>329549</v>
+        <v>337100</v>
       </c>
       <c r="AM34" s="15">
-        <v>304565</v>
+        <v>285424</v>
       </c>
       <c r="AN34" s="15">
-        <v>337100</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="15">
-        <v>285424</v>
+        <v>108066</v>
       </c>
       <c r="AP34" s="15">
-        <v>0</v>
+        <v>116046</v>
       </c>
       <c r="AQ34" s="15">
-        <v>108066</v>
+        <v>235170</v>
       </c>
       <c r="AR34" s="15">
-        <v>116046</v>
+        <v>356459</v>
       </c>
       <c r="AS34" s="15">
-        <v>235170</v>
+        <v>298732</v>
       </c>
       <c r="AT34" s="15">
-        <v>356459</v>
+        <v>340797</v>
       </c>
       <c r="AU34" s="15">
-        <v>298732</v>
+        <v>245226</v>
       </c>
       <c r="AV34" s="15">
-        <v>340797</v>
+        <v>169736</v>
       </c>
       <c r="AW34" s="15">
-        <v>245226</v>
+        <v>283938</v>
       </c>
       <c r="AX34" s="15">
-        <v>169736</v>
+        <v>310144</v>
       </c>
       <c r="AY34" s="15">
-        <v>283938</v>
+        <v>268061</v>
       </c>
       <c r="AZ34" s="15">
-        <v>310144</v>
+        <v>294486</v>
       </c>
       <c r="BA34" s="15">
-        <v>268061</v>
+        <v>251500</v>
       </c>
       <c r="BB34" s="15">
-        <v>294486</v>
+        <v>150442</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5122,7 +5122,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5177,7 +5177,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5232,7 +5232,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>79</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5444,7 +5444,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>80</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
@@ -5626,11 +5626,11 @@
       <c r="AQ41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>58</v>
+      <c r="AR41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>0</v>
       </c>
       <c r="AT41" s="11">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="BB41" s="11">
-        <v>0</v>
+        <v>24296</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -5785,23 +5785,23 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
+      <c r="AR42" s="13">
+        <v>70</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>1007</v>
       </c>
       <c r="AT42" s="13">
-        <v>70</v>
+        <v>4557</v>
       </c>
       <c r="AU42" s="13">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AV42" s="13">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="13">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="13">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
@@ -5947,14 +5947,14 @@
       <c r="AR43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>58</v>
+      <c r="AS43" s="11">
+        <v>149</v>
+      </c>
+      <c r="AT43" s="11">
+        <v>0</v>
       </c>
       <c r="AU43" s="11">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="11">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>61</v>
       </c>
@@ -6040,75 +6040,75 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>203157</v>
+      </c>
+      <c r="X44" s="13">
+        <v>171574</v>
       </c>
       <c r="Y44" s="13">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="Z44" s="13">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AA44" s="13">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AB44" s="13">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AC44" s="13">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AD44" s="13">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AE44" s="13">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AF44" s="13">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AG44" s="13">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AH44" s="13">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AI44" s="13">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AJ44" s="13">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AK44" s="13">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AL44" s="13">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AM44" s="13">
-        <v>175920</v>
-      </c>
-      <c r="AN44" s="13">
-        <v>148852</v>
+        <v>130637</v>
+      </c>
+      <c r="AN44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO44" s="13">
-        <v>130637</v>
-      </c>
-      <c r="AP44" s="13" t="s">
-        <v>58</v>
+        <v>24493</v>
+      </c>
+      <c r="AP44" s="13">
+        <v>39776</v>
       </c>
       <c r="AQ44" s="13">
-        <v>24493</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>39776</v>
-      </c>
-      <c r="AS44" s="13">
         <v>129745</v>
       </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT44" s="13" t="s">
         <v>58</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
@@ -6199,11 +6199,11 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -6235,14 +6235,14 @@
       <c r="AH45" s="11">
         <v>0</v>
       </c>
-      <c r="AI45" s="11">
-        <v>0</v>
+      <c r="AI45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="11">
         <v>0</v>
       </c>
-      <c r="AK45" s="11" t="s">
-        <v>58</v>
+      <c r="AK45" s="11">
+        <v>0</v>
       </c>
       <c r="AL45" s="11">
         <v>0</v>
@@ -6250,23 +6250,23 @@
       <c r="AM45" s="11">
         <v>0</v>
       </c>
-      <c r="AN45" s="11">
-        <v>0</v>
+      <c r="AN45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO45" s="11">
         <v>0</v>
       </c>
-      <c r="AP45" s="11" t="s">
-        <v>58</v>
+      <c r="AP45" s="11">
+        <v>0</v>
       </c>
       <c r="AQ45" s="11">
         <v>0</v>
       </c>
-      <c r="AR45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>0</v>
+      <c r="AR45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
@@ -6296,7 +6296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>63</v>
       </c>
@@ -6421,41 +6421,41 @@
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13">
+        <v>28895</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>15996</v>
       </c>
       <c r="AT46" s="13">
-        <v>28895</v>
+        <v>29284</v>
       </c>
       <c r="AU46" s="13">
-        <v>15996</v>
+        <v>53375</v>
       </c>
       <c r="AV46" s="13">
-        <v>29284</v>
+        <v>53605</v>
       </c>
       <c r="AW46" s="13">
-        <v>53375</v>
+        <v>70066</v>
       </c>
       <c r="AX46" s="13">
-        <v>53605</v>
+        <v>53134</v>
       </c>
       <c r="AY46" s="13">
-        <v>70066</v>
+        <v>50815</v>
       </c>
       <c r="AZ46" s="13">
-        <v>53134</v>
+        <v>36076</v>
       </c>
       <c r="BA46" s="13">
-        <v>50815</v>
+        <v>18291</v>
       </c>
       <c r="BB46" s="13">
-        <v>36076</v>
+        <v>10286</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>64</v>
       </c>
@@ -6580,41 +6580,41 @@
       <c r="AQ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS47" s="11" t="s">
-        <v>58</v>
+      <c r="AR47" s="11">
+        <v>51135</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>32391</v>
       </c>
       <c r="AT47" s="11">
-        <v>51135</v>
+        <v>49815</v>
       </c>
       <c r="AU47" s="11">
-        <v>32391</v>
+        <v>53491</v>
       </c>
       <c r="AV47" s="11">
-        <v>49815</v>
+        <v>49499</v>
       </c>
       <c r="AW47" s="11">
-        <v>53491</v>
+        <v>65199</v>
       </c>
       <c r="AX47" s="11">
-        <v>49499</v>
+        <v>50658</v>
       </c>
       <c r="AY47" s="11">
-        <v>65199</v>
+        <v>45152</v>
       </c>
       <c r="AZ47" s="11">
-        <v>50658</v>
+        <v>31296</v>
       </c>
       <c r="BA47" s="11">
-        <v>45152</v>
+        <v>16769</v>
       </c>
       <c r="BB47" s="11">
-        <v>31296</v>
+        <v>18332</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>65</v>
       </c>
@@ -6739,23 +6739,23 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS48" s="13" t="s">
-        <v>58</v>
+      <c r="AR48" s="13">
+        <v>48</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>1011</v>
       </c>
       <c r="AT48" s="13">
-        <v>48</v>
+        <v>1705</v>
       </c>
       <c r="AU48" s="13">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AV48" s="13">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="13">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
@@ -6898,41 +6898,41 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>32437</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>45270</v>
       </c>
       <c r="AT49" s="11">
-        <v>32437</v>
+        <v>36529</v>
       </c>
       <c r="AU49" s="11">
-        <v>45270</v>
+        <v>7698</v>
       </c>
       <c r="AV49" s="11">
-        <v>36529</v>
+        <v>11700</v>
       </c>
       <c r="AW49" s="11">
-        <v>7698</v>
+        <v>6510</v>
       </c>
       <c r="AX49" s="11">
-        <v>11700</v>
+        <v>12118</v>
       </c>
       <c r="AY49" s="11">
-        <v>6510</v>
+        <v>19857</v>
       </c>
       <c r="AZ49" s="11">
-        <v>12118</v>
+        <v>24982</v>
       </c>
       <c r="BA49" s="11">
-        <v>19857</v>
+        <v>12488</v>
       </c>
       <c r="BB49" s="11">
-        <v>24982</v>
+        <v>9324</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>67</v>
       </c>
@@ -7057,41 +7057,41 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>23230</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>43566</v>
       </c>
       <c r="AT50" s="13">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AU50" s="13">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AV50" s="13">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AW50" s="13">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AX50" s="13">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="AY50" s="13">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="AZ50" s="13">
-        <v>5194</v>
+        <v>6259</v>
       </c>
       <c r="BA50" s="13">
-        <v>8722</v>
+        <v>5389</v>
       </c>
       <c r="BB50" s="13">
-        <v>6259</v>
+        <v>6243</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>68</v>
       </c>
@@ -7216,41 +7216,41 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>30194</v>
+      </c>
+      <c r="AS51" s="11">
+        <v>8880</v>
       </c>
       <c r="AT51" s="11">
-        <v>30194</v>
+        <v>5549</v>
       </c>
       <c r="AU51" s="11">
-        <v>8880</v>
+        <v>3845</v>
       </c>
       <c r="AV51" s="11">
-        <v>5549</v>
+        <v>5211</v>
       </c>
       <c r="AW51" s="11">
-        <v>3845</v>
+        <v>7782</v>
       </c>
       <c r="AX51" s="11">
-        <v>5211</v>
+        <v>10543</v>
       </c>
       <c r="AY51" s="11">
-        <v>7782</v>
+        <v>10894</v>
       </c>
       <c r="AZ51" s="11">
-        <v>10543</v>
+        <v>5119</v>
       </c>
       <c r="BA51" s="11">
-        <v>10894</v>
+        <v>1582</v>
       </c>
       <c r="BB51" s="11">
-        <v>5119</v>
+        <v>1483</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>69</v>
       </c>
@@ -7375,20 +7375,20 @@
       <c r="AQ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS52" s="13" t="s">
-        <v>58</v>
+      <c r="AR52" s="13">
+        <v>2056</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>563</v>
       </c>
       <c r="AT52" s="13">
-        <v>2056</v>
+        <v>31</v>
       </c>
       <c r="AU52" s="13">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="13">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>70</v>
       </c>
@@ -7534,11 +7534,11 @@
       <c r="AQ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
+      <c r="AR53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>81</v>
       </c>
@@ -7629,103 +7629,103 @@
         <v>0</v>
       </c>
       <c r="W54" s="15">
-        <v>0</v>
+        <v>203157</v>
       </c>
       <c r="X54" s="15">
-        <v>0</v>
+        <v>171574</v>
       </c>
       <c r="Y54" s="15">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="Z54" s="15">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AA54" s="15">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AB54" s="15">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AC54" s="15">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AD54" s="15">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AE54" s="15">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AF54" s="15">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AG54" s="15">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AH54" s="15">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AI54" s="15">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AJ54" s="15">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AK54" s="15">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AL54" s="15">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AM54" s="15">
-        <v>175920</v>
+        <v>130637</v>
       </c>
       <c r="AN54" s="15">
-        <v>148852</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="15">
-        <v>130637</v>
+        <v>24493</v>
       </c>
       <c r="AP54" s="15">
-        <v>0</v>
+        <v>39776</v>
       </c>
       <c r="AQ54" s="15">
-        <v>24493</v>
+        <v>129745</v>
       </c>
       <c r="AR54" s="15">
-        <v>39776</v>
+        <v>168065</v>
       </c>
       <c r="AS54" s="15">
-        <v>129745</v>
+        <v>148833</v>
       </c>
       <c r="AT54" s="15">
-        <v>168065</v>
+        <v>166984</v>
       </c>
       <c r="AU54" s="15">
-        <v>148833</v>
+        <v>127032</v>
       </c>
       <c r="AV54" s="15">
-        <v>166984</v>
+        <v>124158</v>
       </c>
       <c r="AW54" s="15">
-        <v>127032</v>
+        <v>154038</v>
       </c>
       <c r="AX54" s="15">
-        <v>124158</v>
+        <v>131647</v>
       </c>
       <c r="AY54" s="15">
-        <v>154038</v>
+        <v>135440</v>
       </c>
       <c r="AZ54" s="15">
-        <v>131647</v>
+        <v>103732</v>
       </c>
       <c r="BA54" s="15">
-        <v>135440</v>
+        <v>54519</v>
       </c>
       <c r="BB54" s="15">
-        <v>103732</v>
+        <v>69964</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>82</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
@@ -7907,41 +7907,41 @@
       <c r="AQ56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="11" t="s">
-        <v>58</v>
+      <c r="AR56" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>3209</v>
       </c>
       <c r="AT56" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AU56" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AV56" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AW56" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AX56" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="AY56" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="AZ56" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
       <c r="BA56" s="11">
-        <v>12067</v>
+        <v>44112</v>
       </c>
       <c r="BB56" s="11">
-        <v>20173</v>
+        <v>29674</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>73</v>
       </c>
@@ -8003,75 +8003,75 @@
       <c r="V57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>58</v>
+      <c r="W57" s="13">
+        <v>23</v>
+      </c>
+      <c r="X57" s="13">
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
         <v>0</v>
       </c>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AC57" s="13">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="13">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AE57" s="13">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AF57" s="13">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AG57" s="13">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AH57" s="13">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AI57" s="13">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AJ57" s="13">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AK57" s="13">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AL57" s="13">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AM57" s="13">
-        <v>6875</v>
-      </c>
-      <c r="AN57" s="13">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AN57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO57" s="13">
-        <v>3756</v>
-      </c>
-      <c r="AP57" s="13" t="s">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="AP57" s="13">
+        <v>3361</v>
       </c>
       <c r="AQ57" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR57" s="13">
-        <v>3361</v>
-      </c>
-      <c r="AS57" s="13">
         <v>13891</v>
       </c>
+      <c r="AR57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS57" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT57" s="13" t="s">
         <v>58</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
@@ -8162,75 +8162,75 @@
       <c r="V58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>58</v>
+      <c r="W58" s="11">
+        <v>12327</v>
+      </c>
+      <c r="X58" s="11">
+        <v>12761</v>
       </c>
       <c r="Y58" s="11">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="Z58" s="11">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA58" s="11">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AB58" s="11">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AC58" s="11">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AD58" s="11">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AE58" s="11">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AF58" s="11">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AG58" s="11">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AH58" s="11">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AI58" s="11">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AJ58" s="11">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AK58" s="11">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AL58" s="11">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AM58" s="11">
-        <v>7618</v>
-      </c>
-      <c r="AN58" s="11">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AN58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO58" s="11">
-        <v>2759</v>
-      </c>
-      <c r="AP58" s="11" t="s">
-        <v>58</v>
+        <v>419</v>
+      </c>
+      <c r="AP58" s="11">
+        <v>322</v>
       </c>
       <c r="AQ58" s="11">
-        <v>419</v>
-      </c>
-      <c r="AR58" s="11">
-        <v>322</v>
-      </c>
-      <c r="AS58" s="11">
         <v>1859</v>
       </c>
+      <c r="AR58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS58" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT58" s="11" t="s">
         <v>58</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>63</v>
       </c>
@@ -8384,41 +8384,41 @@
       <c r="AQ59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS59" s="13" t="s">
-        <v>58</v>
+      <c r="AR59" s="13">
+        <v>1708</v>
+      </c>
+      <c r="AS59" s="13">
+        <v>2098</v>
       </c>
       <c r="AT59" s="13">
-        <v>1708</v>
+        <v>2802</v>
       </c>
       <c r="AU59" s="13">
-        <v>2098</v>
+        <v>2014</v>
       </c>
       <c r="AV59" s="13">
-        <v>2802</v>
+        <v>2244</v>
       </c>
       <c r="AW59" s="13">
-        <v>2014</v>
+        <v>277</v>
       </c>
       <c r="AX59" s="13">
-        <v>2244</v>
+        <v>420</v>
       </c>
       <c r="AY59" s="13">
-        <v>277</v>
+        <v>829</v>
       </c>
       <c r="AZ59" s="13">
-        <v>420</v>
+        <v>1275</v>
       </c>
       <c r="BA59" s="13">
-        <v>829</v>
+        <v>1187</v>
       </c>
       <c r="BB59" s="13">
-        <v>1275</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
@@ -8543,41 +8543,41 @@
       <c r="AQ60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS60" s="11" t="s">
-        <v>58</v>
+      <c r="AR60" s="11">
+        <v>1657</v>
+      </c>
+      <c r="AS60" s="11">
+        <v>2448</v>
       </c>
       <c r="AT60" s="11">
-        <v>1657</v>
+        <v>2638</v>
       </c>
       <c r="AU60" s="11">
-        <v>2448</v>
+        <v>1893</v>
       </c>
       <c r="AV60" s="11">
-        <v>2638</v>
+        <v>2364</v>
       </c>
       <c r="AW60" s="11">
-        <v>1893</v>
+        <v>1942</v>
       </c>
       <c r="AX60" s="11">
-        <v>2364</v>
+        <v>2557</v>
       </c>
       <c r="AY60" s="11">
-        <v>1942</v>
+        <v>4549</v>
       </c>
       <c r="AZ60" s="11">
-        <v>2557</v>
+        <v>2257</v>
       </c>
       <c r="BA60" s="11">
-        <v>4549</v>
+        <v>1909</v>
       </c>
       <c r="BB60" s="11">
-        <v>2257</v>
+        <v>1834</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>83</v>
       </c>
@@ -8638,103 +8638,103 @@
         <v>0</v>
       </c>
       <c r="W61" s="15">
-        <v>0</v>
+        <v>12350</v>
       </c>
       <c r="X61" s="15">
-        <v>0</v>
+        <v>12761</v>
       </c>
       <c r="Y61" s="15">
-        <v>12350</v>
+        <v>12866</v>
       </c>
       <c r="Z61" s="15">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA61" s="15">
-        <v>12866</v>
+        <v>3741</v>
       </c>
       <c r="AB61" s="15">
-        <v>4097</v>
+        <v>8366</v>
       </c>
       <c r="AC61" s="15">
-        <v>3741</v>
+        <v>2341</v>
       </c>
       <c r="AD61" s="15">
-        <v>8366</v>
+        <v>8130</v>
       </c>
       <c r="AE61" s="15">
-        <v>2341</v>
+        <v>3369</v>
       </c>
       <c r="AF61" s="15">
-        <v>8130</v>
+        <v>14173</v>
       </c>
       <c r="AG61" s="15">
-        <v>3369</v>
+        <v>11674</v>
       </c>
       <c r="AH61" s="15">
-        <v>14173</v>
+        <v>10986</v>
       </c>
       <c r="AI61" s="15">
-        <v>11674</v>
+        <v>9524</v>
       </c>
       <c r="AJ61" s="15">
-        <v>10986</v>
+        <v>8050</v>
       </c>
       <c r="AK61" s="15">
-        <v>9524</v>
+        <v>14493</v>
       </c>
       <c r="AL61" s="15">
-        <v>8050</v>
+        <v>4732</v>
       </c>
       <c r="AM61" s="15">
-        <v>14493</v>
+        <v>6515</v>
       </c>
       <c r="AN61" s="15">
-        <v>4732</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="15">
-        <v>6515</v>
+        <v>444</v>
       </c>
       <c r="AP61" s="15">
-        <v>0</v>
+        <v>3683</v>
       </c>
       <c r="AQ61" s="15">
-        <v>444</v>
+        <v>15750</v>
       </c>
       <c r="AR61" s="15">
-        <v>3683</v>
+        <v>17194</v>
       </c>
       <c r="AS61" s="15">
-        <v>15750</v>
+        <v>7755</v>
       </c>
       <c r="AT61" s="15">
-        <v>17194</v>
+        <v>8419</v>
       </c>
       <c r="AU61" s="15">
-        <v>7755</v>
+        <v>4411</v>
       </c>
       <c r="AV61" s="15">
-        <v>8419</v>
+        <v>11134</v>
       </c>
       <c r="AW61" s="15">
-        <v>4411</v>
+        <v>5597</v>
       </c>
       <c r="AX61" s="15">
-        <v>11134</v>
+        <v>4353</v>
       </c>
       <c r="AY61" s="15">
-        <v>5597</v>
+        <v>17445</v>
       </c>
       <c r="AZ61" s="15">
-        <v>4353</v>
+        <v>23705</v>
       </c>
       <c r="BA61" s="15">
-        <v>17445</v>
+        <v>47208</v>
       </c>
       <c r="BB61" s="15">
-        <v>23705</v>
+        <v>31676</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>76</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="BA62" s="17"/>
       <c r="BB62" s="17"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>77</v>
       </c>
@@ -8851,11 +8851,11 @@
       <c r="V63" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="19" t="s">
-        <v>58</v>
+      <c r="W63" s="19">
+        <v>0</v>
+      </c>
+      <c r="X63" s="19">
+        <v>0</v>
       </c>
       <c r="Y63" s="19">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>84</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="18" t="s">
         <v>85</v>
       </c>
@@ -9065,11 +9065,11 @@
       <c r="V65" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="19" t="s">
-        <v>58</v>
+      <c r="W65" s="19">
+        <v>0</v>
+      </c>
+      <c r="X65" s="19">
+        <v>0</v>
       </c>
       <c r="Y65" s="19">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>78</v>
       </c>
@@ -9223,103 +9223,103 @@
         <v>0</v>
       </c>
       <c r="W66" s="15">
-        <v>0</v>
+        <v>215507</v>
       </c>
       <c r="X66" s="15">
-        <v>0</v>
+        <v>184335</v>
       </c>
       <c r="Y66" s="15">
-        <v>215507</v>
+        <v>168485</v>
       </c>
       <c r="Z66" s="15">
-        <v>184335</v>
+        <v>157636</v>
       </c>
       <c r="AA66" s="15">
-        <v>168485</v>
+        <v>165019</v>
       </c>
       <c r="AB66" s="15">
-        <v>157636</v>
+        <v>106660</v>
       </c>
       <c r="AC66" s="15">
-        <v>165019</v>
+        <v>56803</v>
       </c>
       <c r="AD66" s="15">
-        <v>106660</v>
+        <v>102051</v>
       </c>
       <c r="AE66" s="15">
-        <v>56803</v>
+        <v>115893</v>
       </c>
       <c r="AF66" s="15">
-        <v>102051</v>
+        <v>155210</v>
       </c>
       <c r="AG66" s="15">
-        <v>115893</v>
+        <v>186880</v>
       </c>
       <c r="AH66" s="15">
-        <v>155210</v>
+        <v>183225</v>
       </c>
       <c r="AI66" s="15">
-        <v>186880</v>
+        <v>159512</v>
       </c>
       <c r="AJ66" s="15">
-        <v>183225</v>
+        <v>148999</v>
       </c>
       <c r="AK66" s="15">
-        <v>159512</v>
+        <v>190413</v>
       </c>
       <c r="AL66" s="15">
-        <v>148999</v>
+        <v>153584</v>
       </c>
       <c r="AM66" s="15">
-        <v>190413</v>
+        <v>137152</v>
       </c>
       <c r="AN66" s="15">
-        <v>153584</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="15">
-        <v>137152</v>
+        <v>24937</v>
       </c>
       <c r="AP66" s="15">
-        <v>0</v>
+        <v>43459</v>
       </c>
       <c r="AQ66" s="15">
-        <v>24937</v>
+        <v>145495</v>
       </c>
       <c r="AR66" s="15">
-        <v>43459</v>
+        <v>185259</v>
       </c>
       <c r="AS66" s="15">
-        <v>145495</v>
+        <v>156588</v>
       </c>
       <c r="AT66" s="15">
-        <v>185259</v>
+        <v>175403</v>
       </c>
       <c r="AU66" s="15">
-        <v>156588</v>
+        <v>131443</v>
       </c>
       <c r="AV66" s="15">
-        <v>175403</v>
+        <v>135292</v>
       </c>
       <c r="AW66" s="15">
-        <v>131443</v>
+        <v>159635</v>
       </c>
       <c r="AX66" s="15">
-        <v>135292</v>
+        <v>136000</v>
       </c>
       <c r="AY66" s="15">
-        <v>159635</v>
+        <v>152885</v>
       </c>
       <c r="AZ66" s="15">
-        <v>136000</v>
+        <v>127437</v>
       </c>
       <c r="BA66" s="15">
-        <v>152885</v>
+        <v>101727</v>
       </c>
       <c r="BB66" s="15">
-        <v>127437</v>
+        <v>101640</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -9374,7 +9374,7 @@
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -9429,7 +9429,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9484,7 +9484,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>86</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9696,7 +9696,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>87</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
@@ -9878,11 +9878,11 @@
       <c r="AQ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS73" s="11" t="s">
-        <v>58</v>
+      <c r="AR73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>0</v>
       </c>
       <c r="AT73" s="11">
         <v>0</v>
@@ -9909,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="BB73" s="11">
-        <v>0</v>
+        <v>80659</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>59</v>
       </c>
@@ -10037,23 +10037,23 @@
       <c r="AQ74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS74" s="13" t="s">
-        <v>58</v>
+      <c r="AR74" s="13">
+        <v>383</v>
+      </c>
+      <c r="AS74" s="13">
+        <v>5982</v>
       </c>
       <c r="AT74" s="13">
-        <v>383</v>
+        <v>27963</v>
       </c>
       <c r="AU74" s="13">
-        <v>5982</v>
+        <v>4364</v>
       </c>
       <c r="AV74" s="13">
-        <v>27963</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>4364</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
         <v>0</v>
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>60</v>
       </c>
@@ -10199,14 +10199,14 @@
       <c r="AR75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT75" s="11" t="s">
-        <v>58</v>
+      <c r="AS75" s="11">
+        <v>514</v>
+      </c>
+      <c r="AT75" s="11">
+        <v>0</v>
       </c>
       <c r="AU75" s="11">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="11">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>61</v>
       </c>
@@ -10292,75 +10292,75 @@
       <c r="V76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>58</v>
+      <c r="W76" s="13">
+        <v>466204</v>
+      </c>
+      <c r="X76" s="13">
+        <v>417403</v>
       </c>
       <c r="Y76" s="13">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="Z76" s="13">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AA76" s="13">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AB76" s="13">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AC76" s="13">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AD76" s="13">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AE76" s="13">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AF76" s="13">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AG76" s="13">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AH76" s="13">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AI76" s="13">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AJ76" s="13">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AK76" s="13">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AL76" s="13">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AM76" s="13">
-        <v>1031697</v>
-      </c>
-      <c r="AN76" s="13">
-        <v>684173</v>
+        <v>574236</v>
+      </c>
+      <c r="AN76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO76" s="13">
-        <v>574236</v>
-      </c>
-      <c r="AP76" s="13" t="s">
-        <v>58</v>
+        <v>102713</v>
+      </c>
+      <c r="AP76" s="13">
+        <v>185729</v>
       </c>
       <c r="AQ76" s="13">
-        <v>102713</v>
-      </c>
-      <c r="AR76" s="13">
-        <v>185729</v>
-      </c>
-      <c r="AS76" s="13">
         <v>642327</v>
       </c>
+      <c r="AR76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT76" s="13" t="s">
         <v>58</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>62</v>
       </c>
@@ -10451,11 +10451,11 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>0</v>
+      </c>
+      <c r="X77" s="11">
+        <v>0</v>
       </c>
       <c r="Y77" s="11">
         <v>0</v>
@@ -10502,23 +10502,23 @@
       <c r="AM77" s="11">
         <v>0</v>
       </c>
-      <c r="AN77" s="11">
-        <v>0</v>
+      <c r="AN77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO77" s="11">
         <v>0</v>
       </c>
-      <c r="AP77" s="11" t="s">
-        <v>58</v>
+      <c r="AP77" s="11">
+        <v>0</v>
       </c>
       <c r="AQ77" s="11">
         <v>0</v>
       </c>
-      <c r="AR77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS77" s="11">
-        <v>0</v>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
@@ -10548,7 +10548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>63</v>
       </c>
@@ -10673,41 +10673,41 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13">
+        <v>138585</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>80015</v>
       </c>
       <c r="AT78" s="13">
-        <v>138585</v>
+        <v>176163</v>
       </c>
       <c r="AU78" s="13">
-        <v>80015</v>
+        <v>291764</v>
       </c>
       <c r="AV78" s="13">
-        <v>176163</v>
+        <v>285410</v>
       </c>
       <c r="AW78" s="13">
-        <v>291764</v>
+        <v>364992</v>
       </c>
       <c r="AX78" s="13">
-        <v>285410</v>
+        <v>277224</v>
       </c>
       <c r="AY78" s="13">
-        <v>364992</v>
+        <v>264949</v>
       </c>
       <c r="AZ78" s="13">
-        <v>277224</v>
+        <v>187535</v>
       </c>
       <c r="BA78" s="13">
-        <v>264949</v>
+        <v>94869</v>
       </c>
       <c r="BB78" s="13">
-        <v>187535</v>
+        <v>52450</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>64</v>
       </c>
@@ -10832,41 +10832,41 @@
       <c r="AQ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS79" s="11" t="s">
-        <v>58</v>
+      <c r="AR79" s="11">
+        <v>282166</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>185207</v>
       </c>
       <c r="AT79" s="11">
-        <v>282166</v>
+        <v>345044</v>
       </c>
       <c r="AU79" s="11">
-        <v>185207</v>
+        <v>380389</v>
       </c>
       <c r="AV79" s="11">
-        <v>345044</v>
+        <v>342032</v>
       </c>
       <c r="AW79" s="11">
-        <v>380389</v>
+        <v>451732</v>
       </c>
       <c r="AX79" s="11">
-        <v>342032</v>
+        <v>347673</v>
       </c>
       <c r="AY79" s="11">
-        <v>451732</v>
+        <v>307363</v>
       </c>
       <c r="AZ79" s="11">
-        <v>347673</v>
+        <v>201432</v>
       </c>
       <c r="BA79" s="11">
-        <v>307363</v>
+        <v>107109</v>
       </c>
       <c r="BB79" s="11">
-        <v>201432</v>
+        <v>114917</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>65</v>
       </c>
@@ -10991,23 +10991,23 @@
       <c r="AQ80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS80" s="13" t="s">
-        <v>58</v>
+      <c r="AR80" s="13">
+        <v>166</v>
+      </c>
+      <c r="AS80" s="13">
+        <v>3486</v>
       </c>
       <c r="AT80" s="13">
-        <v>166</v>
+        <v>5883</v>
       </c>
       <c r="AU80" s="13">
-        <v>3486</v>
+        <v>619</v>
       </c>
       <c r="AV80" s="13">
-        <v>5883</v>
+        <v>0</v>
       </c>
       <c r="AW80" s="13">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AX80" s="13">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>66</v>
       </c>
@@ -11150,41 +11150,41 @@
       <c r="AQ81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS81" s="11" t="s">
-        <v>58</v>
+      <c r="AR81" s="11">
+        <v>148012</v>
+      </c>
+      <c r="AS81" s="11">
+        <v>220950</v>
       </c>
       <c r="AT81" s="11">
-        <v>148012</v>
+        <v>193683</v>
       </c>
       <c r="AU81" s="11">
-        <v>220950</v>
+        <v>42458</v>
       </c>
       <c r="AV81" s="11">
-        <v>193683</v>
+        <v>64244</v>
       </c>
       <c r="AW81" s="11">
-        <v>42458</v>
+        <v>35298</v>
       </c>
       <c r="AX81" s="11">
-        <v>64244</v>
+        <v>62922</v>
       </c>
       <c r="AY81" s="11">
-        <v>35298</v>
+        <v>100129</v>
       </c>
       <c r="AZ81" s="11">
-        <v>62922</v>
+        <v>124937</v>
       </c>
       <c r="BA81" s="11">
-        <v>100129</v>
+        <v>62421</v>
       </c>
       <c r="BB81" s="11">
-        <v>124937</v>
+        <v>44984</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>67</v>
       </c>
@@ -11309,41 +11309,41 @@
       <c r="AQ82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="13" t="s">
-        <v>58</v>
+      <c r="AR82" s="13">
+        <v>129823</v>
+      </c>
+      <c r="AS82" s="13">
+        <v>244427</v>
       </c>
       <c r="AT82" s="13">
-        <v>129823</v>
+        <v>247658</v>
       </c>
       <c r="AU82" s="13">
-        <v>244427</v>
+        <v>57581</v>
       </c>
       <c r="AV82" s="13">
-        <v>247658</v>
+        <v>30235</v>
       </c>
       <c r="AW82" s="13">
-        <v>57581</v>
+        <v>30629</v>
       </c>
       <c r="AX82" s="13">
-        <v>30235</v>
+        <v>33683</v>
       </c>
       <c r="AY82" s="13">
-        <v>30629</v>
+        <v>53545</v>
       </c>
       <c r="AZ82" s="13">
-        <v>33683</v>
+        <v>37553</v>
       </c>
       <c r="BA82" s="13">
-        <v>53545</v>
+        <v>31711</v>
       </c>
       <c r="BB82" s="13">
-        <v>37553</v>
+        <v>36811</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>68</v>
       </c>
@@ -11468,41 +11468,41 @@
       <c r="AQ83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS83" s="11" t="s">
-        <v>58</v>
+      <c r="AR83" s="11">
+        <v>150205</v>
+      </c>
+      <c r="AS83" s="11">
+        <v>44996</v>
       </c>
       <c r="AT83" s="11">
-        <v>150205</v>
+        <v>35002</v>
       </c>
       <c r="AU83" s="11">
-        <v>44996</v>
+        <v>26078</v>
       </c>
       <c r="AV83" s="11">
-        <v>35002</v>
+        <v>33744</v>
       </c>
       <c r="AW83" s="11">
-        <v>26078</v>
+        <v>49053</v>
       </c>
       <c r="AX83" s="11">
-        <v>33744</v>
+        <v>61861</v>
       </c>
       <c r="AY83" s="11">
-        <v>49053</v>
+        <v>62877</v>
       </c>
       <c r="AZ83" s="11">
-        <v>61861</v>
+        <v>29791</v>
       </c>
       <c r="BA83" s="11">
-        <v>62877</v>
+        <v>9255</v>
       </c>
       <c r="BB83" s="11">
-        <v>29791</v>
+        <v>8790</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>69</v>
       </c>
@@ -11627,20 +11627,20 @@
       <c r="AQ84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS84" s="13" t="s">
-        <v>58</v>
+      <c r="AR84" s="13">
+        <v>10245</v>
+      </c>
+      <c r="AS84" s="13">
+        <v>3038</v>
       </c>
       <c r="AT84" s="13">
-        <v>10245</v>
+        <v>147</v>
       </c>
       <c r="AU84" s="13">
-        <v>3038</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="13">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="13">
         <v>0</v>
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>70</v>
       </c>
@@ -11786,11 +11786,11 @@
       <c r="AQ85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS85" s="11" t="s">
-        <v>58</v>
+      <c r="AR85" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="11">
+        <v>0</v>
       </c>
       <c r="AT85" s="11">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
         <v>81</v>
       </c>
@@ -11881,103 +11881,103 @@
         <v>0</v>
       </c>
       <c r="W86" s="15">
-        <v>0</v>
+        <v>466204</v>
       </c>
       <c r="X86" s="15">
-        <v>0</v>
+        <v>417403</v>
       </c>
       <c r="Y86" s="15">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="Z86" s="15">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AA86" s="15">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AB86" s="15">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AC86" s="15">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AD86" s="15">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AE86" s="15">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AF86" s="15">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AG86" s="15">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AH86" s="15">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AI86" s="15">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AJ86" s="15">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AK86" s="15">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AL86" s="15">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AM86" s="15">
-        <v>1031697</v>
+        <v>574236</v>
       </c>
       <c r="AN86" s="15">
-        <v>684173</v>
+        <v>0</v>
       </c>
       <c r="AO86" s="15">
-        <v>574236</v>
+        <v>102713</v>
       </c>
       <c r="AP86" s="15">
-        <v>0</v>
+        <v>185729</v>
       </c>
       <c r="AQ86" s="15">
-        <v>102713</v>
+        <v>642327</v>
       </c>
       <c r="AR86" s="15">
-        <v>185729</v>
+        <v>859585</v>
       </c>
       <c r="AS86" s="15">
-        <v>642327</v>
+        <v>788615</v>
       </c>
       <c r="AT86" s="15">
-        <v>859585</v>
+        <v>1031543</v>
       </c>
       <c r="AU86" s="15">
-        <v>788615</v>
+        <v>803253</v>
       </c>
       <c r="AV86" s="15">
-        <v>1031543</v>
+        <v>755665</v>
       </c>
       <c r="AW86" s="15">
-        <v>803253</v>
+        <v>931704</v>
       </c>
       <c r="AX86" s="15">
-        <v>755665</v>
+        <v>783363</v>
       </c>
       <c r="AY86" s="15">
-        <v>931704</v>
+        <v>788863</v>
       </c>
       <c r="AZ86" s="15">
-        <v>783363</v>
+        <v>581248</v>
       </c>
       <c r="BA86" s="15">
-        <v>788863</v>
+        <v>305365</v>
       </c>
       <c r="BB86" s="15">
-        <v>581248</v>
+        <v>338611</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
@@ -12159,41 +12159,41 @@
       <c r="AQ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS88" s="11" t="s">
-        <v>58</v>
+      <c r="AR88" s="11">
+        <v>92839</v>
+      </c>
+      <c r="AS88" s="11">
+        <v>21774</v>
       </c>
       <c r="AT88" s="11">
-        <v>92839</v>
+        <v>23054</v>
       </c>
       <c r="AU88" s="11">
-        <v>21774</v>
+        <v>4120</v>
       </c>
       <c r="AV88" s="11">
-        <v>23054</v>
+        <v>51638</v>
       </c>
       <c r="AW88" s="11">
-        <v>4120</v>
+        <v>18378</v>
       </c>
       <c r="AX88" s="11">
-        <v>51638</v>
+        <v>6116</v>
       </c>
       <c r="AY88" s="11">
-        <v>18378</v>
+        <v>50303</v>
       </c>
       <c r="AZ88" s="11">
-        <v>6116</v>
+        <v>72710</v>
       </c>
       <c r="BA88" s="11">
-        <v>50303</v>
+        <v>153617</v>
       </c>
       <c r="BB88" s="11">
-        <v>72710</v>
+        <v>137170</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>73</v>
       </c>
@@ -12255,75 +12255,75 @@
       <c r="V89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X89" s="13" t="s">
-        <v>58</v>
+      <c r="W89" s="13">
+        <v>32</v>
+      </c>
+      <c r="X89" s="13">
+        <v>0</v>
       </c>
       <c r="Y89" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="13">
         <v>0</v>
       </c>
       <c r="AA89" s="13">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="AB89" s="13">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="AC89" s="13">
-        <v>1499</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="13">
-        <v>3337</v>
+        <v>183</v>
       </c>
       <c r="AE89" s="13">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AF89" s="13">
-        <v>183</v>
+        <v>31616</v>
       </c>
       <c r="AG89" s="13">
-        <v>1750</v>
+        <v>35500</v>
       </c>
       <c r="AH89" s="13">
-        <v>31616</v>
+        <v>46354</v>
       </c>
       <c r="AI89" s="13">
-        <v>35500</v>
+        <v>37105</v>
       </c>
       <c r="AJ89" s="13">
-        <v>46354</v>
+        <v>19254</v>
       </c>
       <c r="AK89" s="13">
-        <v>37105</v>
+        <v>48675</v>
       </c>
       <c r="AL89" s="13">
-        <v>19254</v>
+        <v>6628</v>
       </c>
       <c r="AM89" s="13">
-        <v>48675</v>
-      </c>
-      <c r="AN89" s="13">
-        <v>6628</v>
+        <v>22867</v>
+      </c>
+      <c r="AN89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO89" s="13">
-        <v>22867</v>
-      </c>
-      <c r="AP89" s="13" t="s">
-        <v>58</v>
+        <v>162</v>
+      </c>
+      <c r="AP89" s="13">
+        <v>19886</v>
       </c>
       <c r="AQ89" s="13">
-        <v>162</v>
-      </c>
-      <c r="AR89" s="13">
-        <v>19886</v>
-      </c>
-      <c r="AS89" s="13">
         <v>83647</v>
       </c>
+      <c r="AR89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS89" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT89" s="13" t="s">
         <v>58</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>74</v>
       </c>
@@ -12414,75 +12414,75 @@
       <c r="V90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>58</v>
+      <c r="W90" s="11">
+        <v>32084</v>
+      </c>
+      <c r="X90" s="11">
+        <v>32354</v>
       </c>
       <c r="Y90" s="11">
-        <v>32084</v>
+        <v>36962</v>
       </c>
       <c r="Z90" s="11">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AA90" s="11">
-        <v>36962</v>
+        <v>13630</v>
       </c>
       <c r="AB90" s="11">
-        <v>13634</v>
+        <v>24835</v>
       </c>
       <c r="AC90" s="11">
-        <v>13630</v>
+        <v>7977</v>
       </c>
       <c r="AD90" s="11">
-        <v>24835</v>
+        <v>26884</v>
       </c>
       <c r="AE90" s="11">
-        <v>7977</v>
+        <v>8819</v>
       </c>
       <c r="AF90" s="11">
-        <v>26884</v>
+        <v>31546</v>
       </c>
       <c r="AG90" s="11">
-        <v>8819</v>
+        <v>12261</v>
       </c>
       <c r="AH90" s="11">
-        <v>31546</v>
+        <v>8184</v>
       </c>
       <c r="AI90" s="11">
-        <v>12261</v>
+        <v>15536</v>
       </c>
       <c r="AJ90" s="11">
-        <v>8184</v>
+        <v>35926</v>
       </c>
       <c r="AK90" s="11">
-        <v>15536</v>
+        <v>58209</v>
       </c>
       <c r="AL90" s="11">
-        <v>35926</v>
+        <v>28979</v>
       </c>
       <c r="AM90" s="11">
-        <v>58209</v>
-      </c>
-      <c r="AN90" s="11">
-        <v>28979</v>
+        <v>19680</v>
+      </c>
+      <c r="AN90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO90" s="11">
-        <v>19680</v>
-      </c>
-      <c r="AP90" s="11" t="s">
-        <v>58</v>
+        <v>3969</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>2769</v>
       </c>
       <c r="AQ90" s="11">
-        <v>3969</v>
-      </c>
-      <c r="AR90" s="11">
-        <v>2769</v>
-      </c>
-      <c r="AS90" s="11">
         <v>15476</v>
       </c>
+      <c r="AR90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT90" s="11" t="s">
         <v>58</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>63</v>
       </c>
@@ -12636,41 +12636,41 @@
       <c r="AQ91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS91" s="13" t="s">
-        <v>58</v>
+      <c r="AR91" s="13">
+        <v>11454</v>
+      </c>
+      <c r="AS91" s="13">
+        <v>12981</v>
       </c>
       <c r="AT91" s="13">
-        <v>11454</v>
+        <v>15993</v>
       </c>
       <c r="AU91" s="13">
-        <v>12981</v>
+        <v>11260</v>
       </c>
       <c r="AV91" s="13">
-        <v>15993</v>
+        <v>13422</v>
       </c>
       <c r="AW91" s="13">
-        <v>11260</v>
+        <v>1664</v>
       </c>
       <c r="AX91" s="13">
-        <v>13422</v>
+        <v>2560</v>
       </c>
       <c r="AY91" s="13">
-        <v>1664</v>
+        <v>5147</v>
       </c>
       <c r="AZ91" s="13">
-        <v>2560</v>
+        <v>8799</v>
       </c>
       <c r="BA91" s="13">
-        <v>5147</v>
+        <v>8311</v>
       </c>
       <c r="BB91" s="13">
-        <v>8799</v>
+        <v>1221</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>64</v>
       </c>
@@ -12795,41 +12795,41 @@
       <c r="AQ92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS92" s="11" t="s">
-        <v>58</v>
+      <c r="AR92" s="11">
+        <v>15263</v>
+      </c>
+      <c r="AS92" s="11">
+        <v>23495</v>
       </c>
       <c r="AT92" s="11">
-        <v>15263</v>
+        <v>26172</v>
       </c>
       <c r="AU92" s="11">
-        <v>23495</v>
+        <v>20146</v>
       </c>
       <c r="AV92" s="11">
-        <v>26172</v>
+        <v>24437</v>
       </c>
       <c r="AW92" s="11">
-        <v>20146</v>
+        <v>14809</v>
       </c>
       <c r="AX92" s="11">
-        <v>24437</v>
+        <v>19608</v>
       </c>
       <c r="AY92" s="11">
-        <v>14809</v>
+        <v>34853</v>
       </c>
       <c r="AZ92" s="11">
-        <v>19608</v>
+        <v>17481</v>
       </c>
       <c r="BA92" s="11">
-        <v>34853</v>
+        <v>16102</v>
       </c>
       <c r="BB92" s="11">
-        <v>17481</v>
+        <v>18223</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>83</v>
       </c>
@@ -12890,103 +12890,103 @@
         <v>0</v>
       </c>
       <c r="W93" s="15">
-        <v>0</v>
+        <v>32116</v>
       </c>
       <c r="X93" s="15">
-        <v>0</v>
+        <v>32354</v>
       </c>
       <c r="Y93" s="15">
-        <v>32116</v>
+        <v>36962</v>
       </c>
       <c r="Z93" s="15">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AA93" s="15">
-        <v>36962</v>
+        <v>15129</v>
       </c>
       <c r="AB93" s="15">
-        <v>13634</v>
+        <v>28172</v>
       </c>
       <c r="AC93" s="15">
-        <v>15129</v>
+        <v>7977</v>
       </c>
       <c r="AD93" s="15">
-        <v>28172</v>
+        <v>27067</v>
       </c>
       <c r="AE93" s="15">
-        <v>7977</v>
+        <v>10569</v>
       </c>
       <c r="AF93" s="15">
-        <v>27067</v>
+        <v>63162</v>
       </c>
       <c r="AG93" s="15">
-        <v>10569</v>
+        <v>47761</v>
       </c>
       <c r="AH93" s="15">
-        <v>63162</v>
+        <v>54538</v>
       </c>
       <c r="AI93" s="15">
-        <v>47761</v>
+        <v>52641</v>
       </c>
       <c r="AJ93" s="15">
-        <v>54538</v>
+        <v>55180</v>
       </c>
       <c r="AK93" s="15">
-        <v>52641</v>
+        <v>106884</v>
       </c>
       <c r="AL93" s="15">
-        <v>55180</v>
+        <v>35607</v>
       </c>
       <c r="AM93" s="15">
-        <v>106884</v>
+        <v>42547</v>
       </c>
       <c r="AN93" s="15">
-        <v>35607</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="15">
-        <v>42547</v>
+        <v>4131</v>
       </c>
       <c r="AP93" s="15">
-        <v>0</v>
+        <v>22655</v>
       </c>
       <c r="AQ93" s="15">
-        <v>4131</v>
+        <v>99123</v>
       </c>
       <c r="AR93" s="15">
-        <v>22655</v>
+        <v>119556</v>
       </c>
       <c r="AS93" s="15">
-        <v>99123</v>
+        <v>58250</v>
       </c>
       <c r="AT93" s="15">
-        <v>119556</v>
+        <v>65219</v>
       </c>
       <c r="AU93" s="15">
-        <v>58250</v>
+        <v>35526</v>
       </c>
       <c r="AV93" s="15">
-        <v>65219</v>
+        <v>89497</v>
       </c>
       <c r="AW93" s="15">
-        <v>35526</v>
+        <v>34851</v>
       </c>
       <c r="AX93" s="15">
-        <v>89497</v>
+        <v>28284</v>
       </c>
       <c r="AY93" s="15">
-        <v>34851</v>
+        <v>90303</v>
       </c>
       <c r="AZ93" s="15">
-        <v>28284</v>
+        <v>98990</v>
       </c>
       <c r="BA93" s="15">
-        <v>90303</v>
+        <v>178030</v>
       </c>
       <c r="BB93" s="15">
-        <v>98990</v>
+        <v>156614</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="16" t="s">
         <v>90</v>
       </c>
@@ -13043,7 +13043,7 @@
       <c r="BA94" s="17"/>
       <c r="BB94" s="17"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>77</v>
       </c>
@@ -13105,11 +13105,11 @@
       <c r="V95" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W95" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X95" s="19" t="s">
-        <v>58</v>
+      <c r="W95" s="19">
+        <v>0</v>
+      </c>
+      <c r="X95" s="19">
+        <v>0</v>
       </c>
       <c r="Y95" s="19">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
         <v>91</v>
       </c>
@@ -13259,7 +13259,7 @@
       <c r="BA96" s="17"/>
       <c r="BB96" s="17"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="18" t="s">
         <v>85</v>
       </c>
@@ -13321,11 +13321,11 @@
       <c r="V97" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="19" t="s">
-        <v>58</v>
+      <c r="W97" s="19">
+        <v>0</v>
+      </c>
+      <c r="X97" s="19">
+        <v>0</v>
       </c>
       <c r="Y97" s="19">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>92</v>
       </c>
@@ -13475,7 +13475,7 @@
       <c r="BA98" s="9"/>
       <c r="BB98" s="9"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>93</v>
       </c>
@@ -13537,11 +13537,11 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>0</v>
+      </c>
+      <c r="X99" s="11">
+        <v>0</v>
       </c>
       <c r="Y99" s="11">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
         <v>78</v>
       </c>
@@ -13695,103 +13695,103 @@
         <v>0</v>
       </c>
       <c r="W100" s="15">
-        <v>0</v>
+        <v>498320</v>
       </c>
       <c r="X100" s="15">
-        <v>0</v>
+        <v>449757</v>
       </c>
       <c r="Y100" s="15">
-        <v>498320</v>
+        <v>422623</v>
       </c>
       <c r="Z100" s="15">
-        <v>449757</v>
+        <v>405092</v>
       </c>
       <c r="AA100" s="15">
-        <v>422623</v>
+        <v>442026</v>
       </c>
       <c r="AB100" s="15">
-        <v>405092</v>
+        <v>280728</v>
       </c>
       <c r="AC100" s="15">
-        <v>442026</v>
+        <v>148180</v>
       </c>
       <c r="AD100" s="15">
-        <v>280728</v>
+        <v>283021</v>
       </c>
       <c r="AE100" s="15">
-        <v>148180</v>
+        <v>314326</v>
       </c>
       <c r="AF100" s="15">
-        <v>283021</v>
+        <v>464238</v>
       </c>
       <c r="AG100" s="15">
-        <v>314326</v>
+        <v>703795</v>
       </c>
       <c r="AH100" s="15">
-        <v>464238</v>
+        <v>714509</v>
       </c>
       <c r="AI100" s="15">
-        <v>703795</v>
+        <v>762965</v>
       </c>
       <c r="AJ100" s="15">
-        <v>714509</v>
+        <v>867508</v>
       </c>
       <c r="AK100" s="15">
-        <v>762965</v>
+        <v>1138581</v>
       </c>
       <c r="AL100" s="15">
-        <v>867508</v>
+        <v>719780</v>
       </c>
       <c r="AM100" s="15">
-        <v>1138581</v>
+        <v>616783</v>
       </c>
       <c r="AN100" s="15">
-        <v>719780</v>
+        <v>0</v>
       </c>
       <c r="AO100" s="15">
-        <v>616783</v>
+        <v>106844</v>
       </c>
       <c r="AP100" s="15">
-        <v>0</v>
+        <v>208384</v>
       </c>
       <c r="AQ100" s="15">
-        <v>106844</v>
+        <v>741450</v>
       </c>
       <c r="AR100" s="15">
-        <v>208384</v>
+        <v>979141</v>
       </c>
       <c r="AS100" s="15">
-        <v>741450</v>
+        <v>846865</v>
       </c>
       <c r="AT100" s="15">
-        <v>979141</v>
+        <v>1096762</v>
       </c>
       <c r="AU100" s="15">
-        <v>846865</v>
+        <v>838779</v>
       </c>
       <c r="AV100" s="15">
-        <v>1096762</v>
+        <v>845162</v>
       </c>
       <c r="AW100" s="15">
-        <v>838779</v>
+        <v>966555</v>
       </c>
       <c r="AX100" s="15">
-        <v>845162</v>
+        <v>811647</v>
       </c>
       <c r="AY100" s="15">
-        <v>966555</v>
+        <v>879166</v>
       </c>
       <c r="AZ100" s="15">
-        <v>811647</v>
+        <v>680238</v>
       </c>
       <c r="BA100" s="15">
-        <v>879166</v>
+        <v>483395</v>
       </c>
       <c r="BB100" s="15">
-        <v>680238</v>
+        <v>495225</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -13846,7 +13846,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13901,7 +13901,7 @@
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -13956,7 +13956,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>94</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -14168,7 +14168,7 @@
       <c r="BA105" s="1"/>
       <c r="BB105" s="1"/>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>95</v>
       </c>
@@ -14225,9 +14225,9 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>96</v>
@@ -14356,17 +14356,17 @@
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT107" s="11">
-        <v>5471429</v>
-      </c>
-      <c r="AU107" s="11">
-        <v>5940417</v>
-      </c>
-      <c r="AV107" s="11">
-        <v>6136274</v>
-      </c>
-      <c r="AW107" s="11">
-        <v>7359191</v>
+      <c r="AT107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX107" s="11" t="s">
         <v>58</v>
@@ -14380,13 +14380,13 @@
       <c r="BA107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB107" s="11" t="s">
-        <v>58</v>
+      <c r="BB107" s="11">
+        <v>3319847</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>96</v>
@@ -14509,17 +14509,17 @@
       <c r="AQ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT108" s="13" t="s">
-        <v>58</v>
+      <c r="AR108" s="13">
+        <v>5471429</v>
+      </c>
+      <c r="AS108" s="13">
+        <v>5940417</v>
+      </c>
+      <c r="AT108" s="13">
+        <v>6136274</v>
       </c>
       <c r="AU108" s="13">
-        <v>3449664</v>
+        <v>7359191</v>
       </c>
       <c r="AV108" s="13" t="s">
         <v>58</v>
@@ -14543,9 +14543,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>96</v>
@@ -14611,68 +14611,68 @@
       <c r="X109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="11">
-        <v>2294797</v>
-      </c>
-      <c r="Z109" s="11">
-        <v>2432787</v>
-      </c>
-      <c r="AA109" s="11">
-        <v>2478239</v>
-      </c>
-      <c r="AB109" s="11">
-        <v>2549567</v>
-      </c>
-      <c r="AC109" s="11">
-        <v>2646964</v>
-      </c>
-      <c r="AD109" s="11">
-        <v>2569394</v>
-      </c>
-      <c r="AE109" s="11">
-        <v>2574327</v>
-      </c>
-      <c r="AF109" s="11">
-        <v>2725205</v>
-      </c>
-      <c r="AG109" s="11">
-        <v>2699486</v>
-      </c>
-      <c r="AH109" s="11">
-        <v>2843764</v>
-      </c>
-      <c r="AI109" s="11">
-        <v>3744358</v>
-      </c>
-      <c r="AJ109" s="11">
-        <v>3831716</v>
-      </c>
-      <c r="AK109" s="11">
-        <v>4735872</v>
-      </c>
-      <c r="AL109" s="11">
-        <v>5763276</v>
-      </c>
-      <c r="AM109" s="11">
-        <v>5864580</v>
-      </c>
-      <c r="AN109" s="11">
-        <v>4596331</v>
-      </c>
-      <c r="AO109" s="11">
-        <v>4395661</v>
+      <c r="Y109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ109" s="11">
-        <v>4193566</v>
-      </c>
-      <c r="AR109" s="11">
-        <v>4669373</v>
+      <c r="AQ109" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS109" s="11">
-        <v>4950688</v>
+        <v>3449664</v>
       </c>
       <c r="AT109" s="11" t="s">
         <v>58</v>
@@ -14702,9 +14702,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>96</v>
@@ -14764,68 +14764,68 @@
       <c r="V110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM110" s="13" t="s">
-        <v>58</v>
+      <c r="W110" s="13">
+        <v>2294797</v>
+      </c>
+      <c r="X110" s="13">
+        <v>2432787</v>
+      </c>
+      <c r="Y110" s="13">
+        <v>2478239</v>
+      </c>
+      <c r="Z110" s="13">
+        <v>2549567</v>
+      </c>
+      <c r="AA110" s="13">
+        <v>2646964</v>
+      </c>
+      <c r="AB110" s="13">
+        <v>2569394</v>
+      </c>
+      <c r="AC110" s="13">
+        <v>2574327</v>
+      </c>
+      <c r="AD110" s="13">
+        <v>2725205</v>
+      </c>
+      <c r="AE110" s="13">
+        <v>2699486</v>
+      </c>
+      <c r="AF110" s="13">
+        <v>2843764</v>
+      </c>
+      <c r="AG110" s="13">
+        <v>3744358</v>
+      </c>
+      <c r="AH110" s="13">
+        <v>3831716</v>
+      </c>
+      <c r="AI110" s="13">
+        <v>4735872</v>
+      </c>
+      <c r="AJ110" s="13">
+        <v>5763276</v>
+      </c>
+      <c r="AK110" s="13">
+        <v>5864580</v>
+      </c>
+      <c r="AL110" s="13">
+        <v>4596331</v>
+      </c>
+      <c r="AM110" s="13">
+        <v>4395661</v>
       </c>
       <c r="AN110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ110" s="13" t="s">
-        <v>58</v>
+      <c r="AO110" s="13">
+        <v>4193566</v>
+      </c>
+      <c r="AP110" s="13">
+        <v>4669373</v>
+      </c>
+      <c r="AQ110" s="13">
+        <v>4950688</v>
       </c>
       <c r="AR110" s="13" t="s">
         <v>58</v>
@@ -14833,37 +14833,37 @@
       <c r="AS110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT110" s="13">
-        <v>4796159</v>
-      </c>
-      <c r="AU110" s="13">
-        <v>5002188</v>
-      </c>
-      <c r="AV110" s="13">
-        <v>6015674</v>
-      </c>
-      <c r="AW110" s="13">
-        <v>5466304</v>
-      </c>
-      <c r="AX110" s="13">
-        <v>5324317</v>
-      </c>
-      <c r="AY110" s="13">
-        <v>5209260</v>
-      </c>
-      <c r="AZ110" s="13">
-        <v>5217450</v>
-      </c>
-      <c r="BA110" s="13">
-        <v>5213992</v>
-      </c>
-      <c r="BB110" s="13">
-        <v>5198331</v>
+      <c r="AT110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB110" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>96</v>
@@ -14986,43 +14986,43 @@
       <c r="AQ111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS111" s="11" t="s">
-        <v>58</v>
+      <c r="AR111" s="11">
+        <v>4796159</v>
+      </c>
+      <c r="AS111" s="11">
+        <v>5002188</v>
       </c>
       <c r="AT111" s="11">
-        <v>5518060</v>
+        <v>6015674</v>
       </c>
       <c r="AU111" s="11">
-        <v>5717854</v>
+        <v>5466304</v>
       </c>
       <c r="AV111" s="11">
-        <v>6926508</v>
+        <v>5324317</v>
       </c>
       <c r="AW111" s="11">
-        <v>7111271</v>
+        <v>5209260</v>
       </c>
       <c r="AX111" s="11">
-        <v>6909877</v>
+        <v>5217450</v>
       </c>
       <c r="AY111" s="11">
-        <v>6928511</v>
+        <v>5213992</v>
       </c>
       <c r="AZ111" s="11">
-        <v>6863141</v>
+        <v>5198331</v>
       </c>
       <c r="BA111" s="11">
-        <v>6807295</v>
+        <v>5186649</v>
       </c>
       <c r="BB111" s="11">
-        <v>6436350</v>
+        <v>5099164</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>96</v>
@@ -15145,43 +15145,43 @@
       <c r="AQ112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS112" s="13" t="s">
-        <v>58</v>
+      <c r="AR112" s="13">
+        <v>5518060</v>
+      </c>
+      <c r="AS112" s="13">
+        <v>5717854</v>
       </c>
       <c r="AT112" s="13">
-        <v>3458333</v>
+        <v>6926508</v>
       </c>
       <c r="AU112" s="13">
-        <v>3448071</v>
+        <v>7111271</v>
       </c>
       <c r="AV112" s="13">
-        <v>3450440</v>
+        <v>6909877</v>
       </c>
       <c r="AW112" s="13">
-        <v>3438889</v>
-      </c>
-      <c r="AX112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB112" s="13" t="s">
-        <v>58</v>
+        <v>6928511</v>
+      </c>
+      <c r="AX112" s="13">
+        <v>6863141</v>
+      </c>
+      <c r="AY112" s="13">
+        <v>6807295</v>
+      </c>
+      <c r="AZ112" s="13">
+        <v>6436350</v>
+      </c>
+      <c r="BA112" s="13">
+        <v>6387322</v>
+      </c>
+      <c r="BB112" s="13">
+        <v>6268656</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>96</v>
@@ -15304,43 +15304,43 @@
       <c r="AQ113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR113" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS113" s="11" t="s">
-        <v>58</v>
+      <c r="AR113" s="11">
+        <v>3458333</v>
+      </c>
+      <c r="AS113" s="11">
+        <v>3448071</v>
       </c>
       <c r="AT113" s="11">
-        <v>4563061</v>
+        <v>3450440</v>
       </c>
       <c r="AU113" s="11">
-        <v>4880716</v>
-      </c>
-      <c r="AV113" s="11">
-        <v>5302171</v>
-      </c>
-      <c r="AW113" s="11">
-        <v>5515459</v>
-      </c>
-      <c r="AX113" s="11">
-        <v>5490940</v>
-      </c>
-      <c r="AY113" s="11">
-        <v>5422120</v>
-      </c>
-      <c r="AZ113" s="11">
-        <v>5192441</v>
-      </c>
-      <c r="BA113" s="11">
-        <v>5042504</v>
-      </c>
-      <c r="BB113" s="11">
-        <v>5001081</v>
+        <v>3438889</v>
+      </c>
+      <c r="AV113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB113" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>96</v>
@@ -15463,43 +15463,43 @@
       <c r="AQ114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS114" s="13" t="s">
-        <v>58</v>
+      <c r="AR114" s="13">
+        <v>4563061</v>
+      </c>
+      <c r="AS114" s="13">
+        <v>4880716</v>
       </c>
       <c r="AT114" s="13">
-        <v>5588592</v>
+        <v>5302171</v>
       </c>
       <c r="AU114" s="13">
-        <v>5610499</v>
+        <v>5515459</v>
       </c>
       <c r="AV114" s="13">
-        <v>6267601</v>
+        <v>5490940</v>
       </c>
       <c r="AW114" s="13">
-        <v>7335159</v>
+        <v>5422120</v>
       </c>
       <c r="AX114" s="13">
-        <v>7297852</v>
+        <v>5192441</v>
       </c>
       <c r="AY114" s="13">
-        <v>6835305</v>
+        <v>5042504</v>
       </c>
       <c r="AZ114" s="13">
-        <v>6484983</v>
+        <v>5001081</v>
       </c>
       <c r="BA114" s="13">
-        <v>6139074</v>
+        <v>4998479</v>
       </c>
       <c r="BB114" s="13">
-        <v>5999840</v>
+        <v>4824539</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>96</v>
@@ -15622,43 +15622,43 @@
       <c r="AQ115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS115" s="11" t="s">
-        <v>58</v>
+      <c r="AR115" s="11">
+        <v>5588592</v>
+      </c>
+      <c r="AS115" s="11">
+        <v>5610499</v>
       </c>
       <c r="AT115" s="11">
-        <v>4974664</v>
+        <v>6267601</v>
       </c>
       <c r="AU115" s="11">
-        <v>5067117</v>
+        <v>7335159</v>
       </c>
       <c r="AV115" s="11">
-        <v>6307803</v>
+        <v>7297852</v>
       </c>
       <c r="AW115" s="11">
-        <v>6782315</v>
+        <v>6835305</v>
       </c>
       <c r="AX115" s="11">
-        <v>6475533</v>
+        <v>6484983</v>
       </c>
       <c r="AY115" s="11">
-        <v>6303392</v>
+        <v>6139074</v>
       </c>
       <c r="AZ115" s="11">
-        <v>5867495</v>
+        <v>5999840</v>
       </c>
       <c r="BA115" s="11">
-        <v>5771709</v>
+        <v>5884394</v>
       </c>
       <c r="BB115" s="11">
-        <v>5819691</v>
+        <v>5896364</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>96</v>
@@ -15781,890 +15781,1049 @@
       <c r="AQ116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS116" s="13" t="s">
-        <v>58</v>
+      <c r="AR116" s="13">
+        <v>4974664</v>
+      </c>
+      <c r="AS116" s="13">
+        <v>5067117</v>
       </c>
       <c r="AT116" s="13">
+        <v>6307803</v>
+      </c>
+      <c r="AU116" s="13">
+        <v>6782315</v>
+      </c>
+      <c r="AV116" s="13">
+        <v>6475533</v>
+      </c>
+      <c r="AW116" s="13">
+        <v>6303392</v>
+      </c>
+      <c r="AX116" s="13">
+        <v>5867495</v>
+      </c>
+      <c r="AY116" s="13">
+        <v>5771709</v>
+      </c>
+      <c r="AZ116" s="13">
+        <v>5819691</v>
+      </c>
+      <c r="BA116" s="13">
+        <v>5850190</v>
+      </c>
+      <c r="BB116" s="13">
+        <v>5927175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B117" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR117" s="11">
         <v>4982977</v>
       </c>
-      <c r="AU116" s="13">
+      <c r="AS117" s="11">
         <v>5396092</v>
       </c>
-      <c r="AV116" s="13">
+      <c r="AT117" s="11">
         <v>4741935</v>
       </c>
-      <c r="AW116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB116" s="13" t="s">
+      <c r="AU117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA117" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB117" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B117" s="8" t="s">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
-      <c r="Z117" s="9"/>
-      <c r="AA117" s="9"/>
-      <c r="AB117" s="9"/>
-      <c r="AC117" s="9"/>
-      <c r="AD117" s="9"/>
-      <c r="AE117" s="9"/>
-      <c r="AF117" s="9"/>
-      <c r="AG117" s="9"/>
-      <c r="AH117" s="9"/>
-      <c r="AI117" s="9"/>
-      <c r="AJ117" s="9"/>
-      <c r="AK117" s="9"/>
-      <c r="AL117" s="9"/>
-      <c r="AM117" s="9"/>
-      <c r="AN117" s="9"/>
-      <c r="AO117" s="9"/>
-      <c r="AP117" s="9"/>
-      <c r="AQ117" s="9"/>
-      <c r="AR117" s="9"/>
-      <c r="AS117" s="9"/>
-      <c r="AT117" s="9"/>
-      <c r="AU117" s="9"/>
-      <c r="AV117" s="9"/>
-      <c r="AW117" s="9"/>
-      <c r="AX117" s="9"/>
-      <c r="AY117" s="9"/>
-      <c r="AZ117" s="9"/>
-      <c r="BA117" s="9"/>
-      <c r="BB117" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AA118" s="9"/>
+      <c r="AB118" s="9"/>
+      <c r="AC118" s="9"/>
+      <c r="AD118" s="9"/>
+      <c r="AE118" s="9"/>
+      <c r="AF118" s="9"/>
+      <c r="AG118" s="9"/>
+      <c r="AH118" s="9"/>
+      <c r="AI118" s="9"/>
+      <c r="AJ118" s="9"/>
+      <c r="AK118" s="9"/>
+      <c r="AL118" s="9"/>
+      <c r="AM118" s="9"/>
+      <c r="AN118" s="9"/>
+      <c r="AO118" s="9"/>
+      <c r="AP118" s="9"/>
+      <c r="AQ118" s="9"/>
+      <c r="AR118" s="9"/>
+      <c r="AS118" s="9"/>
+      <c r="AT118" s="9"/>
+      <c r="AU118" s="9"/>
+      <c r="AV118" s="9"/>
+      <c r="AW118" s="9"/>
+      <c r="AX118" s="9"/>
+      <c r="AY118" s="9"/>
+      <c r="AZ118" s="9"/>
+      <c r="BA118" s="9"/>
+      <c r="BB118" s="9"/>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B118" s="10" t="s">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C119" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT118" s="11">
+      <c r="D119" s="11"/>
+      <c r="E119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR119" s="11">
         <v>6713356</v>
       </c>
-      <c r="AU118" s="11">
+      <c r="AS119" s="11">
         <v>6785291</v>
       </c>
-      <c r="AV118" s="11">
+      <c r="AT119" s="11">
         <v>7738839</v>
       </c>
-      <c r="AW118" s="11">
+      <c r="AU119" s="11">
         <v>8174603</v>
       </c>
-      <c r="AX118" s="11">
+      <c r="AV119" s="11">
         <v>7912657</v>
       </c>
-      <c r="AY118" s="11">
+      <c r="AW119" s="11">
         <v>5440497</v>
       </c>
-      <c r="AZ118" s="11">
+      <c r="AX119" s="11">
         <v>4444767</v>
       </c>
-      <c r="BA118" s="11">
+      <c r="AY119" s="11">
         <v>4168642</v>
       </c>
-      <c r="BB118" s="11">
+      <c r="AZ119" s="11">
         <v>3604323</v>
       </c>
+      <c r="BA119" s="11">
+        <v>3482431</v>
+      </c>
+      <c r="BB119" s="11">
+        <v>4622565</v>
+      </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B119" s="12" t="s">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B120" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C120" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y119" s="13">
+      <c r="D120" s="13"/>
+      <c r="E120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W120" s="13">
         <v>1391304</v>
       </c>
-      <c r="Z119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC119" s="13">
+      <c r="X120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA120" s="13">
         <v>3674020</v>
       </c>
-      <c r="AD119" s="13">
+      <c r="AB120" s="13">
         <v>2995512</v>
       </c>
-      <c r="AE119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF119" s="13">
+      <c r="AC120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD120" s="13">
         <v>2407895</v>
       </c>
-      <c r="AG119" s="13">
+      <c r="AE120" s="13">
         <v>3507014</v>
       </c>
-      <c r="AH119" s="13">
+      <c r="AF120" s="13">
         <v>4146361</v>
       </c>
-      <c r="AI119" s="13">
+      <c r="AG120" s="13">
         <v>4389761</v>
       </c>
-      <c r="AJ119" s="13">
+      <c r="AH120" s="13">
         <v>5168246</v>
       </c>
-      <c r="AK119" s="13">
+      <c r="AI120" s="13">
         <v>5451807</v>
       </c>
-      <c r="AL119" s="13">
+      <c r="AJ120" s="13">
         <v>6544528</v>
       </c>
-      <c r="AM119" s="13">
+      <c r="AK120" s="13">
         <v>7080000</v>
       </c>
-      <c r="AN119" s="13">
+      <c r="AL120" s="13">
         <v>6595025</v>
       </c>
-      <c r="AO119" s="13">
+      <c r="AM120" s="13">
         <v>6088126</v>
       </c>
-      <c r="AP119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ119" s="13">
+      <c r="AN120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO120" s="13">
         <v>6480000</v>
       </c>
-      <c r="AR119" s="13">
+      <c r="AP120" s="13">
         <v>5916691</v>
       </c>
-      <c r="AS119" s="13">
+      <c r="AQ120" s="13">
         <v>6021669</v>
       </c>
-      <c r="AT119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB119" s="13" t="s">
+      <c r="AR120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB120" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B120" s="10" t="s">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y120" s="11">
+      <c r="D121" s="11"/>
+      <c r="E121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W121" s="11">
         <v>2602742</v>
       </c>
-      <c r="Z120" s="11">
+      <c r="X121" s="11">
         <v>2535381</v>
       </c>
-      <c r="AA120" s="11">
+      <c r="Y121" s="11">
         <v>2872843</v>
       </c>
-      <c r="AB120" s="11">
+      <c r="Z121" s="11">
         <v>3327801</v>
       </c>
-      <c r="AC120" s="11">
+      <c r="AA121" s="11">
         <v>4089409</v>
       </c>
-      <c r="AD120" s="11">
+      <c r="AB121" s="11">
         <v>3424573</v>
       </c>
-      <c r="AE120" s="11">
+      <c r="AC121" s="11">
         <v>3407518</v>
       </c>
-      <c r="AF120" s="11">
+      <c r="AD121" s="11">
         <v>3337969</v>
       </c>
-      <c r="AG120" s="11">
+      <c r="AE121" s="11">
         <v>3072822</v>
       </c>
-      <c r="AH120" s="11">
+      <c r="AF121" s="11">
         <v>4817654</v>
       </c>
-      <c r="AI120" s="11">
+      <c r="AG121" s="11">
         <v>3418177</v>
       </c>
-      <c r="AJ120" s="11">
+      <c r="AH121" s="11">
         <v>4057511</v>
       </c>
-      <c r="AK120" s="11">
+      <c r="AI121" s="11">
         <v>5715968</v>
       </c>
-      <c r="AL120" s="11">
+      <c r="AJ121" s="11">
         <v>7033281</v>
       </c>
-      <c r="AM120" s="11">
+      <c r="AK121" s="11">
         <v>7640982</v>
       </c>
-      <c r="AN120" s="11">
+      <c r="AL121" s="11">
         <v>7775423</v>
       </c>
-      <c r="AO120" s="11">
+      <c r="AM121" s="11">
         <v>7133019</v>
       </c>
-      <c r="AP120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ120" s="11">
+      <c r="AN121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO121" s="11">
         <v>9472554</v>
       </c>
-      <c r="AR120" s="11">
+      <c r="AP121" s="11">
         <v>8599379</v>
       </c>
-      <c r="AS120" s="11">
+      <c r="AQ121" s="11">
         <v>8324906</v>
       </c>
-      <c r="AT120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB120" s="11" t="s">
+      <c r="AR121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB121" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B121" s="12" t="s">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B122" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT121" s="13">
+      <c r="D122" s="13"/>
+      <c r="E122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR122" s="13">
         <v>6706089</v>
       </c>
-      <c r="AU121" s="13">
+      <c r="AS122" s="13">
         <v>6187321</v>
       </c>
-      <c r="AV121" s="13">
+      <c r="AT122" s="13">
         <v>5707709</v>
       </c>
-      <c r="AW121" s="13">
+      <c r="AU122" s="13">
         <v>5590864</v>
       </c>
-      <c r="AX121" s="13">
+      <c r="AV122" s="13">
         <v>5981283</v>
       </c>
-      <c r="AY121" s="13">
+      <c r="AW122" s="13">
         <v>6007220</v>
       </c>
-      <c r="AZ121" s="13">
+      <c r="AX122" s="13">
         <v>6095238</v>
       </c>
-      <c r="BA121" s="13">
+      <c r="AY122" s="13">
         <v>6208685</v>
       </c>
-      <c r="BB121" s="13">
+      <c r="AZ122" s="13">
         <v>6901176</v>
       </c>
+      <c r="BA122" s="13">
+        <v>7001685</v>
+      </c>
+      <c r="BB122" s="13">
+        <v>7267857</v>
+      </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B122" s="10" t="s">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C123" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT122" s="11">
+      <c r="D123" s="11"/>
+      <c r="E123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR123" s="11">
         <v>9211225</v>
       </c>
-      <c r="AU122" s="11">
+      <c r="AS123" s="11">
         <v>9597631</v>
       </c>
-      <c r="AV122" s="11">
+      <c r="AT123" s="11">
         <v>9921152</v>
       </c>
-      <c r="AW122" s="11">
+      <c r="AU123" s="11">
         <v>10642367</v>
       </c>
-      <c r="AX122" s="11">
+      <c r="AV123" s="11">
         <v>10337140</v>
       </c>
-      <c r="AY122" s="11">
+      <c r="AW123" s="11">
         <v>7625644</v>
       </c>
-      <c r="AZ122" s="11">
+      <c r="AX123" s="11">
         <v>7668361</v>
       </c>
-      <c r="BA122" s="11">
+      <c r="AY123" s="11">
         <v>7661684</v>
       </c>
-      <c r="BB122" s="11">
+      <c r="AZ123" s="11">
         <v>7745237</v>
+      </c>
+      <c r="BA123" s="11">
+        <v>8434783</v>
+      </c>
+      <c r="BB123" s="11">
+        <v>9936205</v>
       </c>
     </row>
   </sheetData>
